--- a/case-study-5/Relative Importance of Predictors PGA Golf.xlsx
+++ b/case-study-5/Relative Importance of Predictors PGA Golf.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="244" documentId="13_ncr:1_{750468B2-951C-444B-AFB8-BED67963FF23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{276737ED-E713-4E24-8305-2C4944675CAA}"/>
+  <xr:revisionPtr revIDLastSave="246" documentId="13_ncr:1_{750468B2-951C-444B-AFB8-BED67963FF23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DEFE1B0E-695D-4803-A7A4-DAEE0448CE8E}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -709,7 +709,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="0.00000"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -832,7 +832,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -847,15 +847,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -886,6 +885,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1177,15 +1180,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N187"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="88" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="102" workbookViewId="0">
       <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="18.68359375" customWidth="1"/>
-    <col min="7" max="7" width="19.83984375" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.83984375" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.578125" style="11" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.68359375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18.68359375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.68359375" bestFit="1" customWidth="1"/>
@@ -1210,10 +1213,10 @@
       <c r="F1" t="s">
         <v>187</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="11" t="s">
         <v>192</v>
       </c>
       <c r="K1" s="3"/>
@@ -1246,11 +1249,11 @@
       <c r="F2" s="1">
         <v>71.599999999999994</v>
       </c>
-      <c r="G2" s="12">
+      <c r="G2" s="11">
         <f>'Scoring Average MLR Results'!B28</f>
         <v>70.472738181530005</v>
       </c>
-      <c r="H2" s="12">
+      <c r="H2" s="11">
         <f>'Scoring Average MLR Results'!C28</f>
         <v>1.1272618184699894</v>
       </c>
@@ -1282,11 +1285,11 @@
       <c r="F3" s="1">
         <v>72.180000000000007</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="11">
         <f>'Scoring Average MLR Results'!B29</f>
         <v>71.166679314093741</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3" s="11">
         <f>'Scoring Average MLR Results'!C29</f>
         <v>1.0133206859062653</v>
       </c>
@@ -1325,11 +1328,11 @@
       <c r="F4" s="1">
         <v>71.430000000000007</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="11">
         <f>'Scoring Average MLR Results'!B30</f>
         <v>70.66673130409626</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="11">
         <f>'Scoring Average MLR Results'!C30</f>
         <v>0.76326869590374713</v>
       </c>
@@ -1368,11 +1371,11 @@
       <c r="F5" s="1">
         <v>71.37</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="11">
         <f>'Scoring Average MLR Results'!B31</f>
         <v>70.646821390281687</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="11">
         <f>'Scoring Average MLR Results'!C31</f>
         <v>0.72317860971831749</v>
       </c>
@@ -1411,11 +1414,11 @@
       <c r="F6" s="1">
         <v>70.94</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="11">
         <f>'Scoring Average MLR Results'!B32</f>
         <v>70.2184901366047</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="11">
         <f>'Scoring Average MLR Results'!C32</f>
         <v>0.72150986339529766</v>
       </c>
@@ -1454,11 +1457,11 @@
       <c r="F7" s="1">
         <v>72.489999999999995</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="11">
         <f>'Scoring Average MLR Results'!B33</f>
         <v>71.769917198364354</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="11">
         <f>'Scoring Average MLR Results'!C33</f>
         <v>0.72008280163564109</v>
       </c>
@@ -1482,11 +1485,11 @@
       <c r="F8" s="1">
         <v>71.38</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="11">
         <f>'Scoring Average MLR Results'!B34</f>
         <v>70.663439371732494</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="11">
         <f>'Scoring Average MLR Results'!C34</f>
         <v>0.71656062826750144</v>
       </c>
@@ -1510,11 +1513,11 @@
       <c r="F9" s="1">
         <v>72.61</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="11">
         <f>'Scoring Average MLR Results'!B35</f>
         <v>71.94926317506598</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="11">
         <f>'Scoring Average MLR Results'!C35</f>
         <v>0.66073682493401975</v>
       </c>
@@ -1538,11 +1541,11 @@
       <c r="F10" s="1">
         <v>71.48</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="11">
         <f>'Scoring Average MLR Results'!B36</f>
         <v>70.832305951950545</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="11">
         <f>'Scoring Average MLR Results'!C36</f>
         <v>0.64769404804945907</v>
       </c>
@@ -1566,11 +1569,11 @@
       <c r="F11" s="1">
         <v>72.540000000000006</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="11">
         <f>'Scoring Average MLR Results'!B37</f>
         <v>71.901783238135522</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="11">
         <f>'Scoring Average MLR Results'!C37</f>
         <v>0.63821676186448428</v>
       </c>
@@ -1594,11 +1597,11 @@
       <c r="F12" s="1">
         <v>70.94</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="11">
         <f>'Scoring Average MLR Results'!B38</f>
         <v>70.308527857985425</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H12" s="11">
         <f>'Scoring Average MLR Results'!C38</f>
         <v>0.63147214201457302</v>
       </c>
@@ -1622,11 +1625,11 @@
       <c r="F13" s="1">
         <v>71.34</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="11">
         <f>'Scoring Average MLR Results'!B39</f>
         <v>70.744535697911786</v>
       </c>
-      <c r="H13" s="12">
+      <c r="H13" s="11">
         <f>'Scoring Average MLR Results'!C39</f>
         <v>0.59546430208821732</v>
       </c>
@@ -1650,11 +1653,11 @@
       <c r="F14" s="1">
         <v>71.05</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="11">
         <f>'Scoring Average MLR Results'!B40</f>
         <v>70.466755874427207</v>
       </c>
-      <c r="H14" s="12">
+      <c r="H14" s="11">
         <f>'Scoring Average MLR Results'!C40</f>
         <v>0.58324412557279004</v>
       </c>
@@ -1678,11 +1681,11 @@
       <c r="F15" s="1">
         <v>70.73</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G15" s="11">
         <f>'Scoring Average MLR Results'!B41</f>
         <v>70.148188159936083</v>
       </c>
-      <c r="H15" s="12">
+      <c r="H15" s="11">
         <f>'Scoring Average MLR Results'!C41</f>
         <v>0.58181184006392073</v>
       </c>
@@ -1706,11 +1709,11 @@
       <c r="F16" s="1">
         <v>72.08</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G16" s="11">
         <f>'Scoring Average MLR Results'!B42</f>
         <v>71.520470630520578</v>
       </c>
-      <c r="H16" s="12">
+      <c r="H16" s="11">
         <f>'Scoring Average MLR Results'!C42</f>
         <v>0.55952936947942078</v>
       </c>
@@ -1734,11 +1737,11 @@
       <c r="F17" s="1">
         <v>71.680000000000007</v>
       </c>
-      <c r="G17" s="12">
+      <c r="G17" s="11">
         <f>'Scoring Average MLR Results'!B43</f>
         <v>71.122275772769342</v>
       </c>
-      <c r="H17" s="12">
+      <c r="H17" s="11">
         <f>'Scoring Average MLR Results'!C43</f>
         <v>0.55772422723066484</v>
       </c>
@@ -1762,11 +1765,11 @@
       <c r="F18" s="1">
         <v>70.8</v>
       </c>
-      <c r="G18" s="12">
+      <c r="G18" s="11">
         <f>'Scoring Average MLR Results'!B44</f>
         <v>70.247770867527947</v>
       </c>
-      <c r="H18" s="12">
+      <c r="H18" s="11">
         <f>'Scoring Average MLR Results'!C44</f>
         <v>0.55222913247204986</v>
       </c>
@@ -1790,11 +1793,11 @@
       <c r="F19" s="1">
         <v>70.709999999999994</v>
       </c>
-      <c r="G19" s="12">
+      <c r="G19" s="11">
         <f>'Scoring Average MLR Results'!B45</f>
         <v>70.161185700949957</v>
       </c>
-      <c r="H19" s="12">
+      <c r="H19" s="11">
         <f>'Scoring Average MLR Results'!C45</f>
         <v>0.54881429905003642</v>
       </c>
@@ -1818,11 +1821,11 @@
       <c r="F20" s="1">
         <v>72.05</v>
       </c>
-      <c r="G20" s="12">
+      <c r="G20" s="11">
         <f>'Scoring Average MLR Results'!B46</f>
         <v>71.50723059406883</v>
       </c>
-      <c r="H20" s="12">
+      <c r="H20" s="11">
         <f>'Scoring Average MLR Results'!C46</f>
         <v>0.54276940593116763</v>
       </c>
@@ -1846,11 +1849,11 @@
       <c r="F21" s="1">
         <v>71.63</v>
       </c>
-      <c r="G21" s="12">
+      <c r="G21" s="11">
         <f>'Scoring Average MLR Results'!B47</f>
         <v>71.116714601644034</v>
       </c>
-      <c r="H21" s="12">
+      <c r="H21" s="11">
         <f>'Scoring Average MLR Results'!C47</f>
         <v>0.51328539835596132</v>
       </c>
@@ -1874,11 +1877,11 @@
       <c r="F22" s="1">
         <v>71.260000000000005</v>
       </c>
-      <c r="G22" s="12">
+      <c r="G22" s="11">
         <f>'Scoring Average MLR Results'!B48</f>
         <v>70.772450337490412</v>
       </c>
-      <c r="H22" s="12">
+      <c r="H22" s="11">
         <f>'Scoring Average MLR Results'!C48</f>
         <v>0.48754966250959342</v>
       </c>
@@ -1902,11 +1905,11 @@
       <c r="F23" s="1">
         <v>71.709999999999994</v>
       </c>
-      <c r="G23" s="12">
+      <c r="G23" s="11">
         <f>'Scoring Average MLR Results'!B49</f>
         <v>71.257397635016815</v>
       </c>
-      <c r="H23" s="12">
+      <c r="H23" s="11">
         <f>'Scoring Average MLR Results'!C49</f>
         <v>0.45260236498317852</v>
       </c>
@@ -1930,11 +1933,11 @@
       <c r="F24" s="1">
         <v>72.760000000000005</v>
       </c>
-      <c r="G24" s="12">
+      <c r="G24" s="11">
         <f>'Scoring Average MLR Results'!B50</f>
         <v>72.30812686850382</v>
       </c>
-      <c r="H24" s="12">
+      <c r="H24" s="11">
         <f>'Scoring Average MLR Results'!C50</f>
         <v>0.45187313149618547</v>
       </c>
@@ -1958,11 +1961,11 @@
       <c r="F25" s="1">
         <v>71.16</v>
       </c>
-      <c r="G25" s="12">
+      <c r="G25" s="11">
         <f>'Scoring Average MLR Results'!B51</f>
         <v>70.713505930203695</v>
       </c>
-      <c r="H25" s="12">
+      <c r="H25" s="11">
         <f>'Scoring Average MLR Results'!C51</f>
         <v>0.44649406979630157</v>
       </c>
@@ -1986,11 +1989,11 @@
       <c r="F26" s="1">
         <v>70.790000000000006</v>
       </c>
-      <c r="G26" s="12">
+      <c r="G26" s="11">
         <f>'Scoring Average MLR Results'!B52</f>
         <v>70.346452840202105</v>
       </c>
-      <c r="H26" s="12">
+      <c r="H26" s="11">
         <f>'Scoring Average MLR Results'!C52</f>
         <v>0.44354715979790171</v>
       </c>
@@ -2014,11 +2017,11 @@
       <c r="F27" s="1">
         <v>71.510000000000005</v>
       </c>
-      <c r="G27" s="12">
+      <c r="G27" s="11">
         <f>'Scoring Average MLR Results'!B53</f>
         <v>71.073124051232654</v>
       </c>
-      <c r="H27" s="12">
+      <c r="H27" s="11">
         <f>'Scoring Average MLR Results'!C53</f>
         <v>0.43687594876735147</v>
       </c>
@@ -2042,11 +2045,11 @@
       <c r="F28" s="1">
         <v>70.7</v>
       </c>
-      <c r="G28" s="12">
+      <c r="G28" s="11">
         <f>'Scoring Average MLR Results'!B54</f>
         <v>70.265913772480431</v>
       </c>
-      <c r="H28" s="12">
+      <c r="H28" s="11">
         <f>'Scoring Average MLR Results'!C54</f>
         <v>0.43408622751957182</v>
       </c>
@@ -2070,11 +2073,11 @@
       <c r="F29" s="1">
         <v>70.989999999999995</v>
       </c>
-      <c r="G29" s="12">
+      <c r="G29" s="11">
         <f>'Scoring Average MLR Results'!B55</f>
         <v>70.556954970161655</v>
       </c>
-      <c r="H29" s="12">
+      <c r="H29" s="11">
         <f>'Scoring Average MLR Results'!C55</f>
         <v>0.4330450298383397</v>
       </c>
@@ -2098,11 +2101,11 @@
       <c r="F30" s="1">
         <v>70.83</v>
       </c>
-      <c r="G30" s="12">
+      <c r="G30" s="11">
         <f>'Scoring Average MLR Results'!B56</f>
         <v>70.399375656915211</v>
       </c>
-      <c r="H30" s="12">
+      <c r="H30" s="11">
         <f>'Scoring Average MLR Results'!C56</f>
         <v>0.43062434308478714</v>
       </c>
@@ -2126,11 +2129,11 @@
       <c r="F31" s="1">
         <v>71.83</v>
       </c>
-      <c r="G31" s="12">
+      <c r="G31" s="11">
         <f>'Scoring Average MLR Results'!B57</f>
         <v>71.423276105618868</v>
       </c>
-      <c r="H31" s="12">
+      <c r="H31" s="11">
         <f>'Scoring Average MLR Results'!C57</f>
         <v>0.40672389438113044</v>
       </c>
@@ -2154,11 +2157,11 @@
       <c r="F32" s="1">
         <v>70.75</v>
       </c>
-      <c r="G32" s="12">
+      <c r="G32" s="11">
         <f>'Scoring Average MLR Results'!B58</f>
         <v>70.418404169732511</v>
       </c>
-      <c r="H32" s="12">
+      <c r="H32" s="11">
         <f>'Scoring Average MLR Results'!C58</f>
         <v>0.33159583026748862</v>
       </c>
@@ -2182,11 +2185,11 @@
       <c r="F33" s="1">
         <v>70.75</v>
       </c>
-      <c r="G33" s="12">
+      <c r="G33" s="11">
         <f>'Scoring Average MLR Results'!B59</f>
         <v>70.438895142051337</v>
       </c>
-      <c r="H33" s="12">
+      <c r="H33" s="11">
         <f>'Scoring Average MLR Results'!C59</f>
         <v>0.31110485794866349</v>
       </c>
@@ -2210,11 +2213,11 @@
       <c r="F34" s="1">
         <v>72.98</v>
       </c>
-      <c r="G34" s="12">
+      <c r="G34" s="11">
         <f>'Scoring Average MLR Results'!B60</f>
         <v>72.671280848755444</v>
       </c>
-      <c r="H34" s="12">
+      <c r="H34" s="11">
         <f>'Scoring Average MLR Results'!C60</f>
         <v>0.30871915124455995</v>
       </c>
@@ -2238,11 +2241,11 @@
       <c r="F35" s="1">
         <v>71.12</v>
       </c>
-      <c r="G35" s="12">
+      <c r="G35" s="11">
         <f>'Scoring Average MLR Results'!B61</f>
         <v>70.8143948712069</v>
       </c>
-      <c r="H35" s="12">
+      <c r="H35" s="11">
         <f>'Scoring Average MLR Results'!C61</f>
         <v>0.30560512879310409</v>
       </c>
@@ -2266,11 +2269,11 @@
       <c r="F36" s="1">
         <v>71.33</v>
       </c>
-      <c r="G36" s="12">
+      <c r="G36" s="11">
         <f>'Scoring Average MLR Results'!B62</f>
         <v>71.027145070481239</v>
       </c>
-      <c r="H36" s="12">
+      <c r="H36" s="11">
         <f>'Scoring Average MLR Results'!C62</f>
         <v>0.30285492951875881</v>
       </c>
@@ -2294,11 +2297,11 @@
       <c r="F37" s="1">
         <v>70.44</v>
       </c>
-      <c r="G37" s="12">
+      <c r="G37" s="11">
         <f>'Scoring Average MLR Results'!B63</f>
         <v>70.154835718541534</v>
       </c>
-      <c r="H37" s="12">
+      <c r="H37" s="11">
         <f>'Scoring Average MLR Results'!C63</f>
         <v>0.28516428145846362</v>
       </c>
@@ -2322,11 +2325,11 @@
       <c r="F38" s="1">
         <v>71.19</v>
       </c>
-      <c r="G38" s="12">
+      <c r="G38" s="11">
         <f>'Scoring Average MLR Results'!B64</f>
         <v>70.906247755213428</v>
       </c>
-      <c r="H38" s="12">
+      <c r="H38" s="11">
         <f>'Scoring Average MLR Results'!C64</f>
         <v>0.28375224478656946</v>
       </c>
@@ -2350,11 +2353,11 @@
       <c r="F39" s="1">
         <v>70.599999999999994</v>
       </c>
-      <c r="G39" s="12">
+      <c r="G39" s="11">
         <f>'Scoring Average MLR Results'!B65</f>
         <v>70.317622535188448</v>
       </c>
-      <c r="H39" s="12">
+      <c r="H39" s="11">
         <f>'Scoring Average MLR Results'!C65</f>
         <v>0.28237746481154602</v>
       </c>
@@ -2378,11 +2381,11 @@
       <c r="F40" s="1">
         <v>71.63</v>
       </c>
-      <c r="G40" s="12">
+      <c r="G40" s="11">
         <f>'Scoring Average MLR Results'!B66</f>
         <v>71.35183240539358</v>
       </c>
-      <c r="H40" s="12">
+      <c r="H40" s="11">
         <f>'Scoring Average MLR Results'!C66</f>
         <v>0.27816759460641549</v>
       </c>
@@ -2406,11 +2409,11 @@
       <c r="F41" s="1">
         <v>71.13</v>
       </c>
-      <c r="G41" s="12">
+      <c r="G41" s="11">
         <f>'Scoring Average MLR Results'!B67</f>
         <v>70.85265343773753</v>
       </c>
-      <c r="H41" s="12">
+      <c r="H41" s="11">
         <f>'Scoring Average MLR Results'!C67</f>
         <v>0.27734656226246557</v>
       </c>
@@ -2434,11 +2437,11 @@
       <c r="F42" s="1">
         <v>69.66</v>
       </c>
-      <c r="G42" s="12">
+      <c r="G42" s="11">
         <f>'Scoring Average MLR Results'!B68</f>
         <v>69.400738235905209</v>
       </c>
-      <c r="H42" s="12">
+      <c r="H42" s="11">
         <f>'Scoring Average MLR Results'!C68</f>
         <v>0.25926176409478785</v>
       </c>
@@ -2462,11 +2465,11 @@
       <c r="F43" s="1">
         <v>71.180000000000007</v>
       </c>
-      <c r="G43" s="12">
+      <c r="G43" s="11">
         <f>'Scoring Average MLR Results'!B69</f>
         <v>70.931657865238506</v>
       </c>
-      <c r="H43" s="12">
+      <c r="H43" s="11">
         <f>'Scoring Average MLR Results'!C69</f>
         <v>0.24834213476150069</v>
       </c>
@@ -2490,11 +2493,11 @@
       <c r="F44" s="1">
         <v>70.33</v>
       </c>
-      <c r="G44" s="12">
+      <c r="G44" s="11">
         <f>'Scoring Average MLR Results'!B70</f>
         <v>70.087553506588364</v>
       </c>
-      <c r="H44" s="12">
+      <c r="H44" s="11">
         <f>'Scoring Average MLR Results'!C70</f>
         <v>0.24244649341163438</v>
       </c>
@@ -2518,11 +2521,11 @@
       <c r="F45" s="1">
         <v>71.3</v>
       </c>
-      <c r="G45" s="12">
+      <c r="G45" s="11">
         <f>'Scoring Average MLR Results'!B71</f>
         <v>71.06361881481017</v>
       </c>
-      <c r="H45" s="12">
+      <c r="H45" s="11">
         <f>'Scoring Average MLR Results'!C71</f>
         <v>0.23638118518982765</v>
       </c>
@@ -2546,11 +2549,11 @@
       <c r="F46" s="1">
         <v>71.06</v>
       </c>
-      <c r="G46" s="12">
+      <c r="G46" s="11">
         <f>'Scoring Average MLR Results'!B72</f>
         <v>70.831769357685559</v>
       </c>
-      <c r="H46" s="12">
+      <c r="H46" s="11">
         <f>'Scoring Average MLR Results'!C72</f>
         <v>0.22823064231444334</v>
       </c>
@@ -2574,11 +2577,11 @@
       <c r="F47" s="1">
         <v>70.53</v>
       </c>
-      <c r="G47" s="12">
+      <c r="G47" s="11">
         <f>'Scoring Average MLR Results'!B73</f>
         <v>70.319587616935578</v>
       </c>
-      <c r="H47" s="12">
+      <c r="H47" s="11">
         <f>'Scoring Average MLR Results'!C73</f>
         <v>0.21041238306442267</v>
       </c>
@@ -2602,11 +2605,11 @@
       <c r="F48" s="1">
         <v>71.28</v>
       </c>
-      <c r="G48" s="12">
+      <c r="G48" s="11">
         <f>'Scoring Average MLR Results'!B74</f>
         <v>71.070560684413948</v>
       </c>
-      <c r="H48" s="12">
+      <c r="H48" s="11">
         <f>'Scoring Average MLR Results'!C74</f>
         <v>0.209439315586053</v>
       </c>
@@ -2630,11 +2633,11 @@
       <c r="F49" s="1">
         <v>71.52</v>
       </c>
-      <c r="G49" s="12">
+      <c r="G49" s="11">
         <f>'Scoring Average MLR Results'!B75</f>
         <v>71.311334212379009</v>
       </c>
-      <c r="H49" s="12">
+      <c r="H49" s="11">
         <f>'Scoring Average MLR Results'!C75</f>
         <v>0.20866578762098698</v>
       </c>
@@ -2658,11 +2661,11 @@
       <c r="F50" s="1">
         <v>70.42</v>
       </c>
-      <c r="G50" s="12">
+      <c r="G50" s="11">
         <f>'Scoring Average MLR Results'!B76</f>
         <v>70.213341008555673</v>
       </c>
-      <c r="H50" s="12">
+      <c r="H50" s="11">
         <f>'Scoring Average MLR Results'!C76</f>
         <v>0.20665899144432842</v>
       </c>
@@ -2686,11 +2689,11 @@
       <c r="F51" s="1">
         <v>70.81</v>
       </c>
-      <c r="G51" s="12">
+      <c r="G51" s="11">
         <f>'Scoring Average MLR Results'!B77</f>
         <v>70.604744128161215</v>
       </c>
-      <c r="H51" s="12">
+      <c r="H51" s="11">
         <f>'Scoring Average MLR Results'!C77</f>
         <v>0.20525587183878713</v>
       </c>
@@ -2714,11 +2717,11 @@
       <c r="F52" s="1">
         <v>70.430000000000007</v>
       </c>
-      <c r="G52" s="12">
+      <c r="G52" s="11">
         <f>'Scoring Average MLR Results'!B78</f>
         <v>70.231775653431697</v>
       </c>
-      <c r="H52" s="12">
+      <c r="H52" s="11">
         <f>'Scoring Average MLR Results'!C78</f>
         <v>0.19822434656830978</v>
       </c>
@@ -2742,11 +2745,11 @@
       <c r="F53" s="1">
         <v>70.87</v>
       </c>
-      <c r="G53" s="12">
+      <c r="G53" s="11">
         <f>'Scoring Average MLR Results'!B79</f>
         <v>70.672654453735092</v>
       </c>
-      <c r="H53" s="12">
+      <c r="H53" s="11">
         <f>'Scoring Average MLR Results'!C79</f>
         <v>0.19734554626491274</v>
       </c>
@@ -2770,11 +2773,11 @@
       <c r="F54" s="1">
         <v>71.33</v>
       </c>
-      <c r="G54" s="12">
+      <c r="G54" s="11">
         <f>'Scoring Average MLR Results'!B80</f>
         <v>71.139028536988036</v>
       </c>
-      <c r="H54" s="12">
+      <c r="H54" s="11">
         <f>'Scoring Average MLR Results'!C80</f>
         <v>0.19097146301196233</v>
       </c>
@@ -2798,11 +2801,11 @@
       <c r="F55" s="1">
         <v>71.459999999999994</v>
       </c>
-      <c r="G55" s="12">
+      <c r="G55" s="11">
         <f>'Scoring Average MLR Results'!B81</f>
         <v>71.283244660655825</v>
       </c>
-      <c r="H55" s="12">
+      <c r="H55" s="11">
         <f>'Scoring Average MLR Results'!C81</f>
         <v>0.17675533934416876</v>
       </c>
@@ -2826,11 +2829,11 @@
       <c r="F56" s="1">
         <v>71.87</v>
       </c>
-      <c r="G56" s="12">
+      <c r="G56" s="11">
         <f>'Scoring Average MLR Results'!B82</f>
         <v>71.701961897190586</v>
       </c>
-      <c r="H56" s="12">
+      <c r="H56" s="11">
         <f>'Scoring Average MLR Results'!C82</f>
         <v>0.16803810280941889</v>
       </c>
@@ -2854,11 +2857,11 @@
       <c r="F57" s="1">
         <v>70.84</v>
       </c>
-      <c r="G57" s="12">
+      <c r="G57" s="11">
         <f>'Scoring Average MLR Results'!B83</f>
         <v>70.676688202817999</v>
       </c>
-      <c r="H57" s="12">
+      <c r="H57" s="11">
         <f>'Scoring Average MLR Results'!C83</f>
         <v>0.16331179718200417</v>
       </c>
@@ -2882,11 +2885,11 @@
       <c r="F58" s="1">
         <v>70.540000000000006</v>
       </c>
-      <c r="G58" s="12">
+      <c r="G58" s="11">
         <f>'Scoring Average MLR Results'!B84</f>
         <v>70.377060664586054</v>
       </c>
-      <c r="H58" s="12">
+      <c r="H58" s="11">
         <f>'Scoring Average MLR Results'!C84</f>
         <v>0.16293933541395234</v>
       </c>
@@ -2910,11 +2913,11 @@
       <c r="F59" s="1">
         <v>70.97</v>
       </c>
-      <c r="G59" s="12">
+      <c r="G59" s="11">
         <f>'Scoring Average MLR Results'!B85</f>
         <v>70.810494235915044</v>
       </c>
-      <c r="H59" s="12">
+      <c r="H59" s="11">
         <f>'Scoring Average MLR Results'!C85</f>
         <v>0.15950576408495465</v>
       </c>
@@ -2938,11 +2941,11 @@
       <c r="F60" s="1">
         <v>71.42</v>
       </c>
-      <c r="G60" s="12">
+      <c r="G60" s="11">
         <f>'Scoring Average MLR Results'!B86</f>
         <v>71.261635359213102</v>
       </c>
-      <c r="H60" s="12">
+      <c r="H60" s="11">
         <f>'Scoring Average MLR Results'!C86</f>
         <v>0.15836464078689971</v>
       </c>
@@ -2966,11 +2969,11 @@
       <c r="F61" s="1">
         <v>71.33</v>
       </c>
-      <c r="G61" s="12">
+      <c r="G61" s="11">
         <f>'Scoring Average MLR Results'!B87</f>
         <v>71.176160603324661</v>
       </c>
-      <c r="H61" s="12">
+      <c r="H61" s="11">
         <f>'Scoring Average MLR Results'!C87</f>
         <v>0.15383939667533753</v>
       </c>
@@ -2994,11 +2997,11 @@
       <c r="F62" s="1">
         <v>70.67</v>
       </c>
-      <c r="G62" s="12">
+      <c r="G62" s="11">
         <f>'Scoring Average MLR Results'!B88</f>
         <v>70.516315895252916</v>
       </c>
-      <c r="H62" s="12">
+      <c r="H62" s="11">
         <f>'Scoring Average MLR Results'!C88</f>
         <v>0.15368410474708583</v>
       </c>
@@ -3022,11 +3025,11 @@
       <c r="F63" s="1">
         <v>70.62</v>
       </c>
-      <c r="G63" s="12">
+      <c r="G63" s="11">
         <f>'Scoring Average MLR Results'!B89</f>
         <v>70.474657955799131</v>
       </c>
-      <c r="H63" s="12">
+      <c r="H63" s="11">
         <f>'Scoring Average MLR Results'!C89</f>
         <v>0.14534204420087349</v>
       </c>
@@ -3050,11 +3053,11 @@
       <c r="F64" s="1">
         <v>69.709999999999994</v>
       </c>
-      <c r="G64" s="12">
+      <c r="G64" s="11">
         <f>'Scoring Average MLR Results'!B90</f>
         <v>69.579176802121879</v>
       </c>
-      <c r="H64" s="12">
+      <c r="H64" s="11">
         <f>'Scoring Average MLR Results'!C90</f>
         <v>0.13082319787811514</v>
       </c>
@@ -3078,11 +3081,11 @@
       <c r="F65" s="1">
         <v>70.34</v>
       </c>
-      <c r="G65" s="12">
+      <c r="G65" s="11">
         <f>'Scoring Average MLR Results'!B91</f>
         <v>70.210015639026693</v>
       </c>
-      <c r="H65" s="12">
+      <c r="H65" s="11">
         <f>'Scoring Average MLR Results'!C91</f>
         <v>0.12998436097331023</v>
       </c>
@@ -3106,11 +3109,11 @@
       <c r="F66" s="1">
         <v>71</v>
       </c>
-      <c r="G66" s="12">
+      <c r="G66" s="11">
         <f>'Scoring Average MLR Results'!B92</f>
         <v>70.872678587534523</v>
       </c>
-      <c r="H66" s="12">
+      <c r="H66" s="11">
         <f>'Scoring Average MLR Results'!C92</f>
         <v>0.12732141246547712</v>
       </c>
@@ -3134,11 +3137,11 @@
       <c r="F67" s="1">
         <v>70.91</v>
       </c>
-      <c r="G67" s="12">
+      <c r="G67" s="11">
         <f>'Scoring Average MLR Results'!B93</f>
         <v>70.791722952952028</v>
       </c>
-      <c r="H67" s="12">
+      <c r="H67" s="11">
         <f>'Scoring Average MLR Results'!C93</f>
         <v>0.11827704704796815</v>
       </c>
@@ -3162,11 +3165,11 @@
       <c r="F68" s="1">
         <v>70.81</v>
       </c>
-      <c r="G68" s="12">
+      <c r="G68" s="11">
         <f>'Scoring Average MLR Results'!B94</f>
         <v>70.694868414900327</v>
       </c>
-      <c r="H68" s="12">
+      <c r="H68" s="11">
         <f>'Scoring Average MLR Results'!C94</f>
         <v>0.11513158509967525</v>
       </c>
@@ -3190,11 +3193,11 @@
       <c r="F69" s="1">
         <v>70.83</v>
       </c>
-      <c r="G69" s="12">
+      <c r="G69" s="11">
         <f>'Scoring Average MLR Results'!B95</f>
         <v>70.718838573912763</v>
       </c>
-      <c r="H69" s="12">
+      <c r="H69" s="11">
         <f>'Scoring Average MLR Results'!C95</f>
         <v>0.11116142608723578</v>
       </c>
@@ -3218,11 +3221,11 @@
       <c r="F70" s="1">
         <v>71.14</v>
       </c>
-      <c r="G70" s="12">
+      <c r="G70" s="11">
         <f>'Scoring Average MLR Results'!B96</f>
         <v>71.034737607370928</v>
       </c>
-      <c r="H70" s="12">
+      <c r="H70" s="11">
         <f>'Scoring Average MLR Results'!C96</f>
         <v>0.10526239262907211</v>
       </c>
@@ -3246,11 +3249,11 @@
       <c r="F71" s="1">
         <v>71.22</v>
       </c>
-      <c r="G71" s="12">
+      <c r="G71" s="11">
         <f>'Scoring Average MLR Results'!B97</f>
         <v>71.117250517871767</v>
       </c>
-      <c r="H71" s="12">
+      <c r="H71" s="11">
         <f>'Scoring Average MLR Results'!C97</f>
         <v>0.10274948212823176</v>
       </c>
@@ -3274,11 +3277,11 @@
       <c r="F72" s="1">
         <v>70.58</v>
       </c>
-      <c r="G72" s="12">
+      <c r="G72" s="11">
         <f>'Scoring Average MLR Results'!B98</f>
         <v>70.477323961135326</v>
       </c>
-      <c r="H72" s="12">
+      <c r="H72" s="11">
         <f>'Scoring Average MLR Results'!C98</f>
         <v>0.10267603886467214</v>
       </c>
@@ -3302,11 +3305,11 @@
       <c r="F73" s="1">
         <v>71.89</v>
       </c>
-      <c r="G73" s="12">
+      <c r="G73" s="11">
         <f>'Scoring Average MLR Results'!B99</f>
         <v>71.78755358529132</v>
       </c>
-      <c r="H73" s="12">
+      <c r="H73" s="11">
         <f>'Scoring Average MLR Results'!C99</f>
         <v>0.10244641470868032</v>
       </c>
@@ -3330,11 +3333,11 @@
       <c r="F74" s="1">
         <v>71.52</v>
       </c>
-      <c r="G74" s="12">
+      <c r="G74" s="11">
         <f>'Scoring Average MLR Results'!B100</f>
         <v>71.419115438959437</v>
       </c>
-      <c r="H74" s="12">
+      <c r="H74" s="11">
         <f>'Scoring Average MLR Results'!C100</f>
         <v>0.10088456104055865</v>
       </c>
@@ -3358,11 +3361,11 @@
       <c r="F75" s="1">
         <v>71.040000000000006</v>
       </c>
-      <c r="G75" s="12">
+      <c r="G75" s="11">
         <f>'Scoring Average MLR Results'!B101</f>
         <v>70.940961406874294</v>
       </c>
-      <c r="H75" s="12">
+      <c r="H75" s="11">
         <f>'Scoring Average MLR Results'!C101</f>
         <v>9.9038593125712282E-2</v>
       </c>
@@ -3386,11 +3389,11 @@
       <c r="F76" s="1">
         <v>70.849999999999994</v>
       </c>
-      <c r="G76" s="12">
+      <c r="G76" s="11">
         <f>'Scoring Average MLR Results'!B102</f>
         <v>70.752046915334731</v>
       </c>
-      <c r="H76" s="12">
+      <c r="H76" s="11">
         <f>'Scoring Average MLR Results'!C102</f>
         <v>9.7953084665263646E-2</v>
       </c>
@@ -3414,11 +3417,11 @@
       <c r="F77" s="1">
         <v>70.95</v>
       </c>
-      <c r="G77" s="12">
+      <c r="G77" s="11">
         <f>'Scoring Average MLR Results'!B103</f>
         <v>70.85540546128243</v>
       </c>
-      <c r="H77" s="12">
+      <c r="H77" s="11">
         <f>'Scoring Average MLR Results'!C103</f>
         <v>9.4594538717572618E-2</v>
       </c>
@@ -3442,11 +3445,11 @@
       <c r="F78" s="1">
         <v>71.69</v>
       </c>
-      <c r="G78" s="12">
+      <c r="G78" s="11">
         <f>'Scoring Average MLR Results'!B104</f>
         <v>71.599892955240392</v>
       </c>
-      <c r="H78" s="12">
+      <c r="H78" s="11">
         <f>'Scoring Average MLR Results'!C104</f>
         <v>9.0107044759605515E-2</v>
       </c>
@@ -3470,11 +3473,11 @@
       <c r="F79" s="1">
         <v>71.180000000000007</v>
       </c>
-      <c r="G79" s="12">
+      <c r="G79" s="11">
         <f>'Scoring Average MLR Results'!B105</f>
         <v>71.090108071578925</v>
       </c>
-      <c r="H79" s="12">
+      <c r="H79" s="11">
         <f>'Scoring Average MLR Results'!C105</f>
         <v>8.9891928421081957E-2</v>
       </c>
@@ -3498,11 +3501,11 @@
       <c r="F80" s="1">
         <v>71.22</v>
       </c>
-      <c r="G80" s="12">
+      <c r="G80" s="11">
         <f>'Scoring Average MLR Results'!B106</f>
         <v>71.133821622137106</v>
       </c>
-      <c r="H80" s="12">
+      <c r="H80" s="11">
         <f>'Scoring Average MLR Results'!C106</f>
         <v>8.6178377862893285E-2</v>
       </c>
@@ -3526,11 +3529,11 @@
       <c r="F81" s="1">
         <v>70.900000000000006</v>
       </c>
-      <c r="G81" s="12">
+      <c r="G81" s="11">
         <f>'Scoring Average MLR Results'!B107</f>
         <v>70.820307091925841</v>
       </c>
-      <c r="H81" s="12">
+      <c r="H81" s="11">
         <f>'Scoring Average MLR Results'!C107</f>
         <v>7.9692908074164848E-2</v>
       </c>
@@ -3554,11 +3557,11 @@
       <c r="F82" s="1">
         <v>70.430000000000007</v>
       </c>
-      <c r="G82" s="12">
+      <c r="G82" s="11">
         <f>'Scoring Average MLR Results'!B108</f>
         <v>70.358369263794103</v>
       </c>
-      <c r="H82" s="12">
+      <c r="H82" s="11">
         <f>'Scoring Average MLR Results'!C108</f>
         <v>7.16307362059041E-2</v>
       </c>
@@ -3582,11 +3585,11 @@
       <c r="F83" s="1">
         <v>71.099999999999994</v>
       </c>
-      <c r="G83" s="12">
+      <c r="G83" s="11">
         <f>'Scoring Average MLR Results'!B109</f>
         <v>71.029048054204424</v>
       </c>
-      <c r="H83" s="12">
+      <c r="H83" s="11">
         <f>'Scoring Average MLR Results'!C109</f>
         <v>7.0951945795570737E-2</v>
       </c>
@@ -3610,11 +3613,11 @@
       <c r="F84" s="1">
         <v>70.760000000000005</v>
       </c>
-      <c r="G84" s="12">
+      <c r="G84" s="11">
         <f>'Scoring Average MLR Results'!B110</f>
         <v>70.695128216519294</v>
       </c>
-      <c r="H84" s="12">
+      <c r="H84" s="11">
         <f>'Scoring Average MLR Results'!C110</f>
         <v>6.4871783480711542E-2</v>
       </c>
@@ -3638,11 +3641,11 @@
       <c r="F85" s="1">
         <v>70.95</v>
       </c>
-      <c r="G85" s="12">
+      <c r="G85" s="11">
         <f>'Scoring Average MLR Results'!B111</f>
         <v>70.891646320112187</v>
       </c>
-      <c r="H85" s="12">
+      <c r="H85" s="11">
         <f>'Scoring Average MLR Results'!C111</f>
         <v>5.8353679887815701E-2</v>
       </c>
@@ -3666,11 +3669,11 @@
       <c r="F86" s="1">
         <v>71.75</v>
       </c>
-      <c r="G86" s="12">
+      <c r="G86" s="11">
         <f>'Scoring Average MLR Results'!B112</f>
         <v>71.694684365350113</v>
       </c>
-      <c r="H86" s="12">
+      <c r="H86" s="11">
         <f>'Scoring Average MLR Results'!C112</f>
         <v>5.5315634649886647E-2</v>
       </c>
@@ -3694,11 +3697,11 @@
       <c r="F87" s="1">
         <v>71.64</v>
       </c>
-      <c r="G87" s="12">
+      <c r="G87" s="11">
         <f>'Scoring Average MLR Results'!B113</f>
         <v>71.585795608077348</v>
       </c>
-      <c r="H87" s="12">
+      <c r="H87" s="11">
         <f>'Scoring Average MLR Results'!C113</f>
         <v>5.4204391922652917E-2</v>
       </c>
@@ -3722,11 +3725,11 @@
       <c r="F88" s="1">
         <v>70.739999999999995</v>
       </c>
-      <c r="G88" s="12">
+      <c r="G88" s="11">
         <f>'Scoring Average MLR Results'!B114</f>
         <v>70.690820932260948</v>
       </c>
-      <c r="H88" s="12">
+      <c r="H88" s="11">
         <f>'Scoring Average MLR Results'!C114</f>
         <v>4.91790677390469E-2</v>
       </c>
@@ -3750,11 +3753,11 @@
       <c r="F89" s="1">
         <v>70.13</v>
       </c>
-      <c r="G89" s="12">
+      <c r="G89" s="11">
         <f>'Scoring Average MLR Results'!B115</f>
         <v>70.085577581391078</v>
       </c>
-      <c r="H89" s="12">
+      <c r="H89" s="11">
         <f>'Scoring Average MLR Results'!C115</f>
         <v>4.4422418608917269E-2</v>
       </c>
@@ -3778,11 +3781,11 @@
       <c r="F90" s="1">
         <v>70.989999999999995</v>
       </c>
-      <c r="G90" s="12">
+      <c r="G90" s="11">
         <f>'Scoring Average MLR Results'!B116</f>
         <v>70.947696889446178</v>
       </c>
-      <c r="H90" s="12">
+      <c r="H90" s="11">
         <f>'Scoring Average MLR Results'!C116</f>
         <v>4.2303110553817191E-2</v>
       </c>
@@ -3806,11 +3809,11 @@
       <c r="F91" s="1">
         <v>70.430000000000007</v>
       </c>
-      <c r="G91" s="12">
+      <c r="G91" s="11">
         <f>'Scoring Average MLR Results'!B117</f>
         <v>70.38907226358495</v>
       </c>
-      <c r="H91" s="12">
+      <c r="H91" s="11">
         <f>'Scoring Average MLR Results'!C117</f>
         <v>4.092773641505687E-2</v>
       </c>
@@ -3834,11 +3837,11 @@
       <c r="F92" s="1">
         <v>71.53</v>
       </c>
-      <c r="G92" s="12">
+      <c r="G92" s="11">
         <f>'Scoring Average MLR Results'!B118</f>
         <v>71.494985922917181</v>
       </c>
-      <c r="H92" s="12">
+      <c r="H92" s="11">
         <f>'Scoring Average MLR Results'!C118</f>
         <v>3.501407708282045E-2</v>
       </c>
@@ -3862,11 +3865,11 @@
       <c r="F93" s="1">
         <v>70.599999999999994</v>
       </c>
-      <c r="G93" s="12">
+      <c r="G93" s="11">
         <f>'Scoring Average MLR Results'!B119</f>
         <v>70.567180483828693</v>
       </c>
-      <c r="H93" s="12">
+      <c r="H93" s="11">
         <f>'Scoring Average MLR Results'!C119</f>
         <v>3.2819516171301188E-2</v>
       </c>
@@ -3890,11 +3893,11 @@
       <c r="F94" s="1">
         <v>71.3</v>
       </c>
-      <c r="G94" s="12">
+      <c r="G94" s="11">
         <f>'Scoring Average MLR Results'!B120</f>
         <v>71.267711964506276</v>
       </c>
-      <c r="H94" s="12">
+      <c r="H94" s="11">
         <f>'Scoring Average MLR Results'!C120</f>
         <v>3.2288035493721168E-2</v>
       </c>
@@ -3918,11 +3921,11 @@
       <c r="F95" s="1">
         <v>71.900000000000006</v>
       </c>
-      <c r="G95" s="12">
+      <c r="G95" s="11">
         <f>'Scoring Average MLR Results'!B121</f>
         <v>71.869936023701172</v>
       </c>
-      <c r="H95" s="12">
+      <c r="H95" s="11">
         <f>'Scoring Average MLR Results'!C121</f>
         <v>3.006397629883395E-2</v>
       </c>
@@ -3946,11 +3949,11 @@
       <c r="F96" s="1">
         <v>70.84</v>
       </c>
-      <c r="G96" s="12">
+      <c r="G96" s="11">
         <f>'Scoring Average MLR Results'!B122</f>
         <v>70.810073569093404</v>
       </c>
-      <c r="H96" s="12">
+      <c r="H96" s="11">
         <f>'Scoring Average MLR Results'!C122</f>
         <v>2.9926430906598966E-2</v>
       </c>
@@ -3974,11 +3977,11 @@
       <c r="F97" s="1">
         <v>70.52</v>
       </c>
-      <c r="G97" s="12">
+      <c r="G97" s="11">
         <f>'Scoring Average MLR Results'!B123</f>
         <v>70.499354930152222</v>
       </c>
-      <c r="H97" s="12">
+      <c r="H97" s="11">
         <f>'Scoring Average MLR Results'!C123</f>
         <v>2.0645069847773811E-2</v>
       </c>
@@ -4002,11 +4005,11 @@
       <c r="F98" s="1">
         <v>70.650000000000006</v>
       </c>
-      <c r="G98" s="12">
+      <c r="G98" s="11">
         <f>'Scoring Average MLR Results'!B124</f>
         <v>70.632232682237714</v>
       </c>
-      <c r="H98" s="12">
+      <c r="H98" s="11">
         <f>'Scoring Average MLR Results'!C124</f>
         <v>1.7767317762292123E-2</v>
       </c>
@@ -4030,11 +4033,11 @@
       <c r="F99" s="1">
         <v>70.33</v>
       </c>
-      <c r="G99" s="12">
+      <c r="G99" s="11">
         <f>'Scoring Average MLR Results'!B125</f>
         <v>70.314984297597988</v>
       </c>
-      <c r="H99" s="12">
+      <c r="H99" s="11">
         <f>'Scoring Average MLR Results'!C125</f>
         <v>1.5015702402010334E-2</v>
       </c>
@@ -4058,11 +4061,11 @@
       <c r="F100" s="1">
         <v>71.62</v>
       </c>
-      <c r="G100" s="12">
+      <c r="G100" s="11">
         <f>'Scoring Average MLR Results'!B126</f>
         <v>71.609553178000354</v>
       </c>
-      <c r="H100" s="12">
+      <c r="H100" s="11">
         <f>'Scoring Average MLR Results'!C126</f>
         <v>1.0446821999650524E-2</v>
       </c>
@@ -4086,11 +4089,11 @@
       <c r="F101" s="1">
         <v>70.930000000000007</v>
       </c>
-      <c r="G101" s="12">
+      <c r="G101" s="11">
         <f>'Scoring Average MLR Results'!B127</f>
         <v>70.922620891067965</v>
       </c>
-      <c r="H101" s="12">
+      <c r="H101" s="11">
         <f>'Scoring Average MLR Results'!C127</f>
         <v>7.3791089320422998E-3</v>
       </c>
@@ -4114,11 +4117,11 @@
       <c r="F102" s="1">
         <v>71.22</v>
       </c>
-      <c r="G102" s="12">
+      <c r="G102" s="11">
         <f>'Scoring Average MLR Results'!B128</f>
         <v>71.212856195299338</v>
       </c>
-      <c r="H102" s="12">
+      <c r="H102" s="11">
         <f>'Scoring Average MLR Results'!C128</f>
         <v>7.143804700660894E-3</v>
       </c>
@@ -4142,11 +4145,11 @@
       <c r="F103" s="1">
         <v>71.64</v>
       </c>
-      <c r="G103" s="12">
+      <c r="G103" s="11">
         <f>'Scoring Average MLR Results'!B129</f>
         <v>71.63453497573623</v>
       </c>
-      <c r="H103" s="12">
+      <c r="H103" s="11">
         <f>'Scoring Average MLR Results'!C129</f>
         <v>5.4650242637706015E-3</v>
       </c>
@@ -4170,11 +4173,11 @@
       <c r="F104" s="1">
         <v>70.63</v>
       </c>
-      <c r="G104" s="12">
+      <c r="G104" s="11">
         <f>'Scoring Average MLR Results'!B130</f>
         <v>70.627319963275326</v>
       </c>
-      <c r="H104" s="12">
+      <c r="H104" s="11">
         <f>'Scoring Average MLR Results'!C130</f>
         <v>2.6800367246693213E-3</v>
       </c>
@@ -4198,11 +4201,11 @@
       <c r="F105" s="1">
         <v>70.739999999999995</v>
       </c>
-      <c r="G105" s="12">
+      <c r="G105" s="11">
         <f>'Scoring Average MLR Results'!B131</f>
         <v>70.745803179773887</v>
       </c>
-      <c r="H105" s="12">
+      <c r="H105" s="11">
         <f>'Scoring Average MLR Results'!C131</f>
         <v>-5.8031797738919977E-3</v>
       </c>
@@ -4226,11 +4229,11 @@
       <c r="F106" s="1">
         <v>70.78</v>
       </c>
-      <c r="G106" s="12">
+      <c r="G106" s="11">
         <f>'Scoring Average MLR Results'!B132</f>
         <v>70.798782194548281</v>
       </c>
-      <c r="H106" s="12">
+      <c r="H106" s="11">
         <f>'Scoring Average MLR Results'!C132</f>
         <v>-1.8782194548279563E-2</v>
       </c>
@@ -4254,11 +4257,11 @@
       <c r="F107" s="1">
         <v>69.52</v>
       </c>
-      <c r="G107" s="12">
+      <c r="G107" s="11">
         <f>'Scoring Average MLR Results'!B133</f>
         <v>69.545897053319791</v>
       </c>
-      <c r="H107" s="12">
+      <c r="H107" s="11">
         <f>'Scoring Average MLR Results'!C133</f>
         <v>-2.5897053319795305E-2</v>
       </c>
@@ -4282,11 +4285,11 @@
       <c r="F108" s="1">
         <v>70.430000000000007</v>
       </c>
-      <c r="G108" s="12">
+      <c r="G108" s="11">
         <f>'Scoring Average MLR Results'!B134</f>
         <v>70.476430495346904</v>
       </c>
-      <c r="H108" s="12">
+      <c r="H108" s="11">
         <f>'Scoring Average MLR Results'!C134</f>
         <v>-4.6430495346896805E-2</v>
       </c>
@@ -4310,11 +4313,11 @@
       <c r="F109" s="1">
         <v>69.87</v>
       </c>
-      <c r="G109" s="12">
+      <c r="G109" s="11">
         <f>'Scoring Average MLR Results'!B135</f>
         <v>69.924820539599324</v>
       </c>
-      <c r="H109" s="12">
+      <c r="H109" s="11">
         <f>'Scoring Average MLR Results'!C135</f>
         <v>-5.4820539599319318E-2</v>
       </c>
@@ -4338,11 +4341,11 @@
       <c r="F110" s="1">
         <v>71.58</v>
       </c>
-      <c r="G110" s="12">
+      <c r="G110" s="11">
         <f>'Scoring Average MLR Results'!B136</f>
         <v>71.637814625691647</v>
       </c>
-      <c r="H110" s="12">
+      <c r="H110" s="11">
         <f>'Scoring Average MLR Results'!C136</f>
         <v>-5.7814625691648303E-2</v>
       </c>
@@ -4366,11 +4369,11 @@
       <c r="F111" s="1">
         <v>71.86</v>
       </c>
-      <c r="G111" s="12">
+      <c r="G111" s="11">
         <f>'Scoring Average MLR Results'!B137</f>
         <v>71.923849560411341</v>
       </c>
-      <c r="H111" s="12">
+      <c r="H111" s="11">
         <f>'Scoring Average MLR Results'!C137</f>
         <v>-6.3849560411341599E-2</v>
       </c>
@@ -4394,11 +4397,11 @@
       <c r="F112" s="1">
         <v>70.73</v>
       </c>
-      <c r="G112" s="12">
+      <c r="G112" s="11">
         <f>'Scoring Average MLR Results'!B138</f>
         <v>70.813284756408052</v>
       </c>
-      <c r="H112" s="12">
+      <c r="H112" s="11">
         <f>'Scoring Average MLR Results'!C138</f>
         <v>-8.3284756408048111E-2</v>
       </c>
@@ -4422,11 +4425,11 @@
       <c r="F113" s="1">
         <v>71.13</v>
       </c>
-      <c r="G113" s="12">
+      <c r="G113" s="11">
         <f>'Scoring Average MLR Results'!B139</f>
         <v>71.218616322314077</v>
       </c>
-      <c r="H113" s="12">
+      <c r="H113" s="11">
         <f>'Scoring Average MLR Results'!C139</f>
         <v>-8.8616322314081231E-2</v>
       </c>
@@ -4450,11 +4453,11 @@
       <c r="F114" s="1">
         <v>71.900000000000006</v>
       </c>
-      <c r="G114" s="12">
+      <c r="G114" s="11">
         <f>'Scoring Average MLR Results'!B140</f>
         <v>71.989486494341406</v>
       </c>
-      <c r="H114" s="12">
+      <c r="H114" s="11">
         <f>'Scoring Average MLR Results'!C140</f>
         <v>-8.9486494341400658E-2</v>
       </c>
@@ -4478,11 +4481,11 @@
       <c r="F115" s="1">
         <v>70.2</v>
       </c>
-      <c r="G115" s="12">
+      <c r="G115" s="11">
         <f>'Scoring Average MLR Results'!B141</f>
         <v>70.295276597289558</v>
       </c>
-      <c r="H115" s="12">
+      <c r="H115" s="11">
         <f>'Scoring Average MLR Results'!C141</f>
         <v>-9.5276597289554843E-2</v>
       </c>
@@ -4506,11 +4509,11 @@
       <c r="F116" s="1">
         <v>71.12</v>
       </c>
-      <c r="G116" s="12">
+      <c r="G116" s="11">
         <f>'Scoring Average MLR Results'!B142</f>
         <v>71.215728757204772</v>
       </c>
-      <c r="H116" s="12">
+      <c r="H116" s="11">
         <f>'Scoring Average MLR Results'!C142</f>
         <v>-9.5728757204767589E-2</v>
       </c>
@@ -4534,11 +4537,11 @@
       <c r="F117" s="1">
         <v>71.62</v>
       </c>
-      <c r="G117" s="12">
+      <c r="G117" s="11">
         <f>'Scoring Average MLR Results'!B143</f>
         <v>71.72571224489964</v>
       </c>
-      <c r="H117" s="12">
+      <c r="H117" s="11">
         <f>'Scoring Average MLR Results'!C143</f>
         <v>-0.10571224489963527</v>
       </c>
@@ -4562,11 +4565,11 @@
       <c r="F118" s="1">
         <v>71.44</v>
       </c>
-      <c r="G118" s="12">
+      <c r="G118" s="11">
         <f>'Scoring Average MLR Results'!B144</f>
         <v>71.546603989187759</v>
       </c>
-      <c r="H118" s="12">
+      <c r="H118" s="11">
         <f>'Scoring Average MLR Results'!C144</f>
         <v>-0.10660398918776082</v>
       </c>
@@ -4590,11 +4593,11 @@
       <c r="F119" s="1">
         <v>71.7</v>
       </c>
-      <c r="G119" s="12">
+      <c r="G119" s="11">
         <f>'Scoring Average MLR Results'!B145</f>
         <v>71.820820293875244</v>
       </c>
-      <c r="H119" s="12">
+      <c r="H119" s="11">
         <f>'Scoring Average MLR Results'!C145</f>
         <v>-0.12082029387524074</v>
       </c>
@@ -4618,11 +4621,11 @@
       <c r="F120" s="1">
         <v>69.97</v>
       </c>
-      <c r="G120" s="12">
+      <c r="G120" s="11">
         <f>'Scoring Average MLR Results'!B146</f>
         <v>70.096706080754771</v>
       </c>
-      <c r="H120" s="12">
+      <c r="H120" s="11">
         <f>'Scoring Average MLR Results'!C146</f>
         <v>-0.12670608075477219</v>
       </c>
@@ -4646,11 +4649,11 @@
       <c r="F121" s="1">
         <v>70.23</v>
       </c>
-      <c r="G121" s="12">
+      <c r="G121" s="11">
         <f>'Scoring Average MLR Results'!B147</f>
         <v>70.365461132756096</v>
       </c>
-      <c r="H121" s="12">
+      <c r="H121" s="11">
         <f>'Scoring Average MLR Results'!C147</f>
         <v>-0.13546113275609173</v>
       </c>
@@ -4674,11 +4677,11 @@
       <c r="F122" s="1">
         <v>70.8</v>
       </c>
-      <c r="G122" s="12">
+      <c r="G122" s="11">
         <f>'Scoring Average MLR Results'!B148</f>
         <v>70.957326720858759</v>
       </c>
-      <c r="H122" s="12">
+      <c r="H122" s="11">
         <f>'Scoring Average MLR Results'!C148</f>
         <v>-0.15732672085876231</v>
       </c>
@@ -4702,11 +4705,11 @@
       <c r="F123" s="1">
         <v>69.900000000000006</v>
       </c>
-      <c r="G123" s="12">
+      <c r="G123" s="11">
         <f>'Scoring Average MLR Results'!B149</f>
         <v>70.058516680426138</v>
       </c>
-      <c r="H123" s="12">
+      <c r="H123" s="11">
         <f>'Scoring Average MLR Results'!C149</f>
         <v>-0.15851668042613198</v>
       </c>
@@ -4730,11 +4733,11 @@
       <c r="F124" s="1">
         <v>70.42</v>
       </c>
-      <c r="G124" s="12">
+      <c r="G124" s="11">
         <f>'Scoring Average MLR Results'!B150</f>
         <v>70.580490768950924</v>
       </c>
-      <c r="H124" s="12">
+      <c r="H124" s="11">
         <f>'Scoring Average MLR Results'!C150</f>
         <v>-0.16049076895092185</v>
       </c>
@@ -4758,11 +4761,11 @@
       <c r="F125" s="1">
         <v>70.91</v>
       </c>
-      <c r="G125" s="12">
+      <c r="G125" s="11">
         <f>'Scoring Average MLR Results'!B151</f>
         <v>71.081733885131641</v>
       </c>
-      <c r="H125" s="12">
+      <c r="H125" s="11">
         <f>'Scoring Average MLR Results'!C151</f>
         <v>-0.17173388513164412</v>
       </c>
@@ -4786,11 +4789,11 @@
       <c r="F126" s="1">
         <v>71</v>
       </c>
-      <c r="G126" s="12">
+      <c r="G126" s="11">
         <f>'Scoring Average MLR Results'!B152</f>
         <v>71.174397707342962</v>
       </c>
-      <c r="H126" s="12">
+      <c r="H126" s="11">
         <f>'Scoring Average MLR Results'!C152</f>
         <v>-0.17439770734296189</v>
       </c>
@@ -4814,11 +4817,11 @@
       <c r="F127" s="1">
         <v>70.290000000000006</v>
       </c>
-      <c r="G127" s="12">
+      <c r="G127" s="11">
         <f>'Scoring Average MLR Results'!B153</f>
         <v>70.467031679120936</v>
       </c>
-      <c r="H127" s="12">
+      <c r="H127" s="11">
         <f>'Scoring Average MLR Results'!C153</f>
         <v>-0.17703167912092965</v>
       </c>
@@ -4842,11 +4845,11 @@
       <c r="F128" s="1">
         <v>69.709999999999994</v>
       </c>
-      <c r="G128" s="12">
+      <c r="G128" s="11">
         <f>'Scoring Average MLR Results'!B154</f>
         <v>69.888441613553624</v>
       </c>
-      <c r="H128" s="12">
+      <c r="H128" s="11">
         <f>'Scoring Average MLR Results'!C154</f>
         <v>-0.17844161355363042</v>
       </c>
@@ -4870,11 +4873,11 @@
       <c r="F129" s="1">
         <v>70.27</v>
       </c>
-      <c r="G129" s="12">
+      <c r="G129" s="11">
         <f>'Scoring Average MLR Results'!B155</f>
         <v>70.449836318041363</v>
       </c>
-      <c r="H129" s="12">
+      <c r="H129" s="11">
         <f>'Scoring Average MLR Results'!C155</f>
         <v>-0.17983631804136735</v>
       </c>
@@ -4898,11 +4901,11 @@
       <c r="F130" s="1">
         <v>70.61</v>
       </c>
-      <c r="G130" s="12">
+      <c r="G130" s="11">
         <f>'Scoring Average MLR Results'!B156</f>
         <v>70.802749805856706</v>
       </c>
-      <c r="H130" s="12">
+      <c r="H130" s="11">
         <f>'Scoring Average MLR Results'!C156</f>
         <v>-0.19274980585670676</v>
       </c>
@@ -4926,11 +4929,11 @@
       <c r="F131" s="1">
         <v>70.87</v>
       </c>
-      <c r="G131" s="12">
+      <c r="G131" s="11">
         <f>'Scoring Average MLR Results'!B157</f>
         <v>71.067044944567328</v>
       </c>
-      <c r="H131" s="12">
+      <c r="H131" s="11">
         <f>'Scoring Average MLR Results'!C157</f>
         <v>-0.19704494456732391</v>
       </c>
@@ -4954,11 +4957,11 @@
       <c r="F132" s="1">
         <v>70.819999999999993</v>
       </c>
-      <c r="G132" s="12">
+      <c r="G132" s="11">
         <f>'Scoring Average MLR Results'!B158</f>
         <v>71.026031345098133</v>
       </c>
-      <c r="H132" s="12">
+      <c r="H132" s="11">
         <f>'Scoring Average MLR Results'!C158</f>
         <v>-0.2060313450981397</v>
       </c>
@@ -4982,11 +4985,11 @@
       <c r="F133" s="1">
         <v>71.02</v>
       </c>
-      <c r="G133" s="12">
+      <c r="G133" s="11">
         <f>'Scoring Average MLR Results'!B159</f>
         <v>71.238582284597413</v>
       </c>
-      <c r="H133" s="12">
+      <c r="H133" s="11">
         <f>'Scoring Average MLR Results'!C159</f>
         <v>-0.21858228459741724</v>
       </c>
@@ -5010,11 +5013,11 @@
       <c r="F134" s="1">
         <v>70.62</v>
       </c>
-      <c r="G134" s="12">
+      <c r="G134" s="11">
         <f>'Scoring Average MLR Results'!B160</f>
         <v>70.843177519275315</v>
       </c>
-      <c r="H134" s="12">
+      <c r="H134" s="11">
         <f>'Scoring Average MLR Results'!C160</f>
         <v>-0.22317751927531049</v>
       </c>
@@ -5038,11 +5041,11 @@
       <c r="F135" s="1">
         <v>69.89</v>
       </c>
-      <c r="G135" s="12">
+      <c r="G135" s="11">
         <f>'Scoring Average MLR Results'!B161</f>
         <v>70.113784402343441</v>
       </c>
-      <c r="H135" s="12">
+      <c r="H135" s="11">
         <f>'Scoring Average MLR Results'!C161</f>
         <v>-0.22378440234344055</v>
       </c>
@@ -5066,11 +5069,11 @@
       <c r="F136" s="1">
         <v>71.55</v>
       </c>
-      <c r="G136" s="12">
+      <c r="G136" s="11">
         <f>'Scoring Average MLR Results'!B162</f>
         <v>71.774029199560559</v>
       </c>
-      <c r="H136" s="12">
+      <c r="H136" s="11">
         <f>'Scoring Average MLR Results'!C162</f>
         <v>-0.22402919956056166</v>
       </c>
@@ -5094,11 +5097,11 @@
       <c r="F137" s="1">
         <v>70.849999999999994</v>
       </c>
-      <c r="G137" s="12">
+      <c r="G137" s="11">
         <f>'Scoring Average MLR Results'!B163</f>
         <v>71.078089981239458</v>
       </c>
-      <c r="H137" s="12">
+      <c r="H137" s="11">
         <f>'Scoring Average MLR Results'!C163</f>
         <v>-0.22808998123946367</v>
       </c>
@@ -5122,11 +5125,11 @@
       <c r="F138" s="1">
         <v>70.47</v>
       </c>
-      <c r="G138" s="12">
+      <c r="G138" s="11">
         <f>'Scoring Average MLR Results'!B164</f>
         <v>70.712446960651803</v>
       </c>
-      <c r="H138" s="12">
+      <c r="H138" s="11">
         <f>'Scoring Average MLR Results'!C164</f>
         <v>-0.24244696065180449</v>
       </c>
@@ -5150,11 +5153,11 @@
       <c r="F139" s="1">
         <v>70.7</v>
       </c>
-      <c r="G139" s="12">
+      <c r="G139" s="11">
         <f>'Scoring Average MLR Results'!B165</f>
         <v>70.974556977565044</v>
       </c>
-      <c r="H139" s="12">
+      <c r="H139" s="11">
         <f>'Scoring Average MLR Results'!C165</f>
         <v>-0.27455697756504094</v>
       </c>
@@ -5178,11 +5181,11 @@
       <c r="F140" s="1">
         <v>71</v>
       </c>
-      <c r="G140" s="12">
+      <c r="G140" s="11">
         <f>'Scoring Average MLR Results'!B166</f>
         <v>71.282560088431225</v>
       </c>
-      <c r="H140" s="12">
+      <c r="H140" s="11">
         <f>'Scoring Average MLR Results'!C166</f>
         <v>-0.28256008843122515</v>
       </c>
@@ -5206,11 +5209,11 @@
       <c r="F141" s="1">
         <v>71.72</v>
       </c>
-      <c r="G141" s="12">
+      <c r="G141" s="11">
         <f>'Scoring Average MLR Results'!B167</f>
         <v>72.008593795413447</v>
       </c>
-      <c r="H141" s="12">
+      <c r="H141" s="11">
         <f>'Scoring Average MLR Results'!C167</f>
         <v>-0.28859379541344765</v>
       </c>
@@ -5234,11 +5237,11 @@
       <c r="F142" s="1">
         <v>72.010000000000005</v>
       </c>
-      <c r="G142" s="12">
+      <c r="G142" s="11">
         <f>'Scoring Average MLR Results'!B168</f>
         <v>72.302955513398786</v>
       </c>
-      <c r="H142" s="12">
+      <c r="H142" s="11">
         <f>'Scoring Average MLR Results'!C168</f>
         <v>-0.29295551339878045</v>
       </c>
@@ -5262,11 +5265,11 @@
       <c r="F143" s="1">
         <v>71.8</v>
       </c>
-      <c r="G143" s="12">
+      <c r="G143" s="11">
         <f>'Scoring Average MLR Results'!B169</f>
         <v>72.09859107456532</v>
       </c>
-      <c r="H143" s="12">
+      <c r="H143" s="11">
         <f>'Scoring Average MLR Results'!C169</f>
         <v>-0.29859107456532286</v>
       </c>
@@ -5290,11 +5293,11 @@
       <c r="F144" s="1">
         <v>69.36</v>
       </c>
-      <c r="G144" s="12">
+      <c r="G144" s="11">
         <f>'Scoring Average MLR Results'!B170</f>
         <v>69.660533244120046</v>
       </c>
-      <c r="H144" s="12">
+      <c r="H144" s="11">
         <f>'Scoring Average MLR Results'!C170</f>
         <v>-0.30053324412004656</v>
       </c>
@@ -5318,11 +5321,11 @@
       <c r="F145" s="1">
         <v>70.8</v>
       </c>
-      <c r="G145" s="12">
+      <c r="G145" s="11">
         <f>'Scoring Average MLR Results'!B171</f>
         <v>71.106083359081552</v>
       </c>
-      <c r="H145" s="12">
+      <c r="H145" s="11">
         <f>'Scoring Average MLR Results'!C171</f>
         <v>-0.30608335908155482</v>
       </c>
@@ -5346,11 +5349,11 @@
       <c r="F146" s="1">
         <v>70.41</v>
       </c>
-      <c r="G146" s="12">
+      <c r="G146" s="11">
         <f>'Scoring Average MLR Results'!B172</f>
         <v>70.716240720759814</v>
       </c>
-      <c r="H146" s="12">
+      <c r="H146" s="11">
         <f>'Scoring Average MLR Results'!C172</f>
         <v>-0.30624072075981701</v>
       </c>
@@ -5374,11 +5377,11 @@
       <c r="F147" s="1">
         <v>70.09</v>
       </c>
-      <c r="G147" s="12">
+      <c r="G147" s="11">
         <f>'Scoring Average MLR Results'!B173</f>
         <v>70.40433176109164</v>
       </c>
-      <c r="H147" s="12">
+      <c r="H147" s="11">
         <f>'Scoring Average MLR Results'!C173</f>
         <v>-0.31433176109163696</v>
       </c>
@@ -5402,11 +5405,11 @@
       <c r="F148" s="1">
         <v>70.8</v>
       </c>
-      <c r="G148" s="12">
+      <c r="G148" s="11">
         <f>'Scoring Average MLR Results'!B174</f>
         <v>71.125595252851483</v>
       </c>
-      <c r="H148" s="12">
+      <c r="H148" s="11">
         <f>'Scoring Average MLR Results'!C174</f>
         <v>-0.32559525285148538</v>
       </c>
@@ -5430,11 +5433,11 @@
       <c r="F149" s="1">
         <v>70.55</v>
       </c>
-      <c r="G149" s="12">
+      <c r="G149" s="11">
         <f>'Scoring Average MLR Results'!B175</f>
         <v>70.879629412036195</v>
       </c>
-      <c r="H149" s="12">
+      <c r="H149" s="11">
         <f>'Scoring Average MLR Results'!C175</f>
         <v>-0.32962941203619778</v>
       </c>
@@ -5458,11 +5461,11 @@
       <c r="F150" s="1">
         <v>69.25</v>
       </c>
-      <c r="G150" s="12">
+      <c r="G150" s="11">
         <f>'Scoring Average MLR Results'!B176</f>
         <v>69.581468309822938</v>
       </c>
-      <c r="H150" s="12">
+      <c r="H150" s="11">
         <f>'Scoring Average MLR Results'!C176</f>
         <v>-0.33146830982293807</v>
       </c>
@@ -5486,11 +5489,11 @@
       <c r="F151" s="1">
         <v>70.78</v>
       </c>
-      <c r="G151" s="12">
+      <c r="G151" s="11">
         <f>'Scoring Average MLR Results'!B177</f>
         <v>71.112219841276513</v>
       </c>
-      <c r="H151" s="12">
+      <c r="H151" s="11">
         <f>'Scoring Average MLR Results'!C177</f>
         <v>-0.33221984127651183</v>
       </c>
@@ -5514,11 +5517,11 @@
       <c r="F152" s="1">
         <v>70.239999999999995</v>
       </c>
-      <c r="G152" s="12">
+      <c r="G152" s="11">
         <f>'Scoring Average MLR Results'!B178</f>
         <v>70.574539588578872</v>
       </c>
-      <c r="H152" s="12">
+      <c r="H152" s="11">
         <f>'Scoring Average MLR Results'!C178</f>
         <v>-0.33453958857887756</v>
       </c>
@@ -5542,11 +5545,11 @@
       <c r="F153" s="1">
         <v>70.34</v>
       </c>
-      <c r="G153" s="12">
+      <c r="G153" s="11">
         <f>'Scoring Average MLR Results'!B179</f>
         <v>70.683423136015946</v>
       </c>
-      <c r="H153" s="12">
+      <c r="H153" s="11">
         <f>'Scoring Average MLR Results'!C179</f>
         <v>-0.34342313601594299</v>
       </c>
@@ -5570,11 +5573,11 @@
       <c r="F154" s="1">
         <v>70.73</v>
       </c>
-      <c r="G154" s="12">
+      <c r="G154" s="11">
         <f>'Scoring Average MLR Results'!B180</f>
         <v>71.09697004346171</v>
       </c>
-      <c r="H154" s="12">
+      <c r="H154" s="11">
         <f>'Scoring Average MLR Results'!C180</f>
         <v>-0.36697004346170559</v>
       </c>
@@ -5598,11 +5601,11 @@
       <c r="F155" s="1">
         <v>70.28</v>
       </c>
-      <c r="G155" s="12">
+      <c r="G155" s="11">
         <f>'Scoring Average MLR Results'!B181</f>
         <v>70.647700270592082</v>
       </c>
-      <c r="H155" s="12">
+      <c r="H155" s="11">
         <f>'Scoring Average MLR Results'!C181</f>
         <v>-0.36770027059208132</v>
       </c>
@@ -5626,11 +5629,11 @@
       <c r="F156" s="1">
         <v>70.430000000000007</v>
       </c>
-      <c r="G156" s="12">
+      <c r="G156" s="11">
         <f>'Scoring Average MLR Results'!B182</f>
         <v>70.802154209645749</v>
       </c>
-      <c r="H156" s="12">
+      <c r="H156" s="11">
         <f>'Scoring Average MLR Results'!C182</f>
         <v>-0.37215420964574264</v>
       </c>
@@ -5654,11 +5657,11 @@
       <c r="F157" s="1">
         <v>70.7</v>
       </c>
-      <c r="G157" s="12">
+      <c r="G157" s="11">
         <f>'Scoring Average MLR Results'!B183</f>
         <v>71.072727634649311</v>
       </c>
-      <c r="H157" s="12">
+      <c r="H157" s="11">
         <f>'Scoring Average MLR Results'!C183</f>
         <v>-0.37272763464930847</v>
       </c>
@@ -5682,11 +5685,11 @@
       <c r="F158" s="1">
         <v>71.180000000000007</v>
       </c>
-      <c r="G158" s="12">
+      <c r="G158" s="11">
         <f>'Scoring Average MLR Results'!B184</f>
         <v>71.573306007042291</v>
       </c>
-      <c r="H158" s="12">
+      <c r="H158" s="11">
         <f>'Scoring Average MLR Results'!C184</f>
         <v>-0.39330600704228402</v>
       </c>
@@ -5710,11 +5713,11 @@
       <c r="F159" s="1">
         <v>70.5</v>
       </c>
-      <c r="G159" s="12">
+      <c r="G159" s="11">
         <f>'Scoring Average MLR Results'!B185</f>
         <v>70.91469540780335</v>
       </c>
-      <c r="H159" s="12">
+      <c r="H159" s="11">
         <f>'Scoring Average MLR Results'!C185</f>
         <v>-0.41469540780335024</v>
       </c>
@@ -5738,11 +5741,11 @@
       <c r="F160" s="1">
         <v>71.06</v>
       </c>
-      <c r="G160" s="12">
+      <c r="G160" s="11">
         <f>'Scoring Average MLR Results'!B186</f>
         <v>71.478691190289922</v>
       </c>
-      <c r="H160" s="12">
+      <c r="H160" s="11">
         <f>'Scoring Average MLR Results'!C186</f>
         <v>-0.41869119028991975</v>
       </c>
@@ -5766,11 +5769,11 @@
       <c r="F161" s="1">
         <v>70.459999999999994</v>
       </c>
-      <c r="G161" s="12">
+      <c r="G161" s="11">
         <f>'Scoring Average MLR Results'!B187</f>
         <v>70.881137069325277</v>
       </c>
-      <c r="H161" s="12">
+      <c r="H161" s="11">
         <f>'Scoring Average MLR Results'!C187</f>
         <v>-0.42113706932528316</v>
       </c>
@@ -5794,11 +5797,11 @@
       <c r="F162" s="1">
         <v>69.87</v>
       </c>
-      <c r="G162" s="12">
+      <c r="G162" s="11">
         <f>'Scoring Average MLR Results'!B188</f>
         <v>70.294386477947782</v>
       </c>
-      <c r="H162" s="12">
+      <c r="H162" s="11">
         <f>'Scoring Average MLR Results'!C188</f>
         <v>-0.42438647794777751</v>
       </c>
@@ -5822,11 +5825,11 @@
       <c r="F163" s="1">
         <v>70.209999999999994</v>
       </c>
-      <c r="G163" s="12">
+      <c r="G163" s="11">
         <f>'Scoring Average MLR Results'!B189</f>
         <v>70.636174001325628</v>
       </c>
-      <c r="H163" s="12">
+      <c r="H163" s="11">
         <f>'Scoring Average MLR Results'!C189</f>
         <v>-0.42617400132563432</v>
       </c>
@@ -5850,11 +5853,11 @@
       <c r="F164" s="1">
         <v>70.88</v>
       </c>
-      <c r="G164" s="12">
+      <c r="G164" s="11">
         <f>'Scoring Average MLR Results'!B190</f>
         <v>71.321869124939937</v>
       </c>
-      <c r="H164" s="12">
+      <c r="H164" s="11">
         <f>'Scoring Average MLR Results'!C190</f>
         <v>-0.44186912493994157</v>
       </c>
@@ -5878,11 +5881,11 @@
       <c r="F165" s="1">
         <v>70.260000000000005</v>
       </c>
-      <c r="G165" s="12">
+      <c r="G165" s="11">
         <f>'Scoring Average MLR Results'!B191</f>
         <v>70.71908291811819</v>
       </c>
-      <c r="H165" s="12">
+      <c r="H165" s="11">
         <f>'Scoring Average MLR Results'!C191</f>
         <v>-0.45908291811818458</v>
       </c>
@@ -5906,11 +5909,11 @@
       <c r="F166" s="1">
         <v>69.86</v>
       </c>
-      <c r="G166" s="12">
+      <c r="G166" s="11">
         <f>'Scoring Average MLR Results'!B192</f>
         <v>70.319283037827489</v>
       </c>
-      <c r="H166" s="12">
+      <c r="H166" s="11">
         <f>'Scoring Average MLR Results'!C192</f>
         <v>-0.45928303782748969</v>
       </c>
@@ -5934,11 +5937,11 @@
       <c r="F167" s="1">
         <v>71.02</v>
       </c>
-      <c r="G167" s="12">
+      <c r="G167" s="11">
         <f>'Scoring Average MLR Results'!B193</f>
         <v>71.479289922137411</v>
       </c>
-      <c r="H167" s="12">
+      <c r="H167" s="11">
         <f>'Scoring Average MLR Results'!C193</f>
         <v>-0.45928992213741537</v>
       </c>
@@ -5962,11 +5965,11 @@
       <c r="F168" s="1">
         <v>70.28</v>
       </c>
-      <c r="G168" s="12">
+      <c r="G168" s="11">
         <f>'Scoring Average MLR Results'!B194</f>
         <v>70.769205151504949</v>
       </c>
-      <c r="H168" s="12">
+      <c r="H168" s="11">
         <f>'Scoring Average MLR Results'!C194</f>
         <v>-0.48920515150494737</v>
       </c>
@@ -5990,11 +5993,11 @@
       <c r="F169" s="1">
         <v>69.510000000000005</v>
       </c>
-      <c r="G169" s="12">
+      <c r="G169" s="11">
         <f>'Scoring Average MLR Results'!B195</f>
         <v>70.002911946070483</v>
       </c>
-      <c r="H169" s="12">
+      <c r="H169" s="11">
         <f>'Scoring Average MLR Results'!C195</f>
         <v>-0.49291194607047828</v>
       </c>
@@ -6018,11 +6021,11 @@
       <c r="F170" s="1">
         <v>70.459999999999994</v>
       </c>
-      <c r="G170" s="12">
+      <c r="G170" s="11">
         <f>'Scoring Average MLR Results'!B196</f>
         <v>70.981740504767274</v>
       </c>
-      <c r="H170" s="12">
+      <c r="H170" s="11">
         <f>'Scoring Average MLR Results'!C196</f>
         <v>-0.52174050476727984</v>
       </c>
@@ -6046,11 +6049,11 @@
       <c r="F171" s="1">
         <v>70.2</v>
       </c>
-      <c r="G171" s="12">
+      <c r="G171" s="11">
         <f>'Scoring Average MLR Results'!B197</f>
         <v>70.737677343796605</v>
       </c>
-      <c r="H171" s="12">
+      <c r="H171" s="11">
         <f>'Scoring Average MLR Results'!C197</f>
         <v>-0.53767734379660226</v>
       </c>
@@ -6074,11 +6077,11 @@
       <c r="F172" s="1">
         <v>70.37</v>
       </c>
-      <c r="G172" s="12">
+      <c r="G172" s="11">
         <f>'Scoring Average MLR Results'!B198</f>
         <v>70.916203232514562</v>
       </c>
-      <c r="H172" s="12">
+      <c r="H172" s="11">
         <f>'Scoring Average MLR Results'!C198</f>
         <v>-0.54620323251455716</v>
       </c>
@@ -6102,11 +6105,11 @@
       <c r="F173" s="1">
         <v>70.569999999999993</v>
       </c>
-      <c r="G173" s="12">
+      <c r="G173" s="11">
         <f>'Scoring Average MLR Results'!B199</f>
         <v>71.117643656068893</v>
       </c>
-      <c r="H173" s="12">
+      <c r="H173" s="11">
         <f>'Scoring Average MLR Results'!C199</f>
         <v>-0.54764365606889953</v>
       </c>
@@ -6130,11 +6133,11 @@
       <c r="F174" s="1">
         <v>70.319999999999993</v>
       </c>
-      <c r="G174" s="12">
+      <c r="G174" s="11">
         <f>'Scoring Average MLR Results'!B200</f>
         <v>70.869340465752757</v>
       </c>
-      <c r="H174" s="12">
+      <c r="H174" s="11">
         <f>'Scoring Average MLR Results'!C200</f>
         <v>-0.54934046575276341</v>
       </c>
@@ -6158,11 +6161,11 @@
       <c r="F175" s="1">
         <v>70.209999999999994</v>
       </c>
-      <c r="G175" s="12">
+      <c r="G175" s="11">
         <f>'Scoring Average MLR Results'!B201</f>
         <v>70.761980041556043</v>
       </c>
-      <c r="H175" s="12">
+      <c r="H175" s="11">
         <f>'Scoring Average MLR Results'!C201</f>
         <v>-0.55198004155604963</v>
       </c>
@@ -6186,11 +6189,11 @@
       <c r="F176" s="1">
         <v>69.989999999999995</v>
       </c>
-      <c r="G176" s="12">
+      <c r="G176" s="11">
         <f>'Scoring Average MLR Results'!B202</f>
         <v>70.547324613158182</v>
       </c>
-      <c r="H176" s="12">
+      <c r="H176" s="11">
         <f>'Scoring Average MLR Results'!C202</f>
         <v>-0.55732461315818682</v>
       </c>
@@ -6214,11 +6217,11 @@
       <c r="F177" s="1">
         <v>70.44</v>
       </c>
-      <c r="G177" s="12">
+      <c r="G177" s="11">
         <f>'Scoring Average MLR Results'!B203</f>
         <v>71.008480194290769</v>
       </c>
-      <c r="H177" s="12">
+      <c r="H177" s="11">
         <f>'Scoring Average MLR Results'!C203</f>
         <v>-0.56848019429077112</v>
       </c>
@@ -6242,11 +6245,11 @@
       <c r="F178" s="1">
         <v>69.849999999999994</v>
       </c>
-      <c r="G178" s="12">
+      <c r="G178" s="11">
         <f>'Scoring Average MLR Results'!B204</f>
         <v>70.425925085068684</v>
       </c>
-      <c r="H178" s="12">
+      <c r="H178" s="11">
         <f>'Scoring Average MLR Results'!C204</f>
         <v>-0.57592508506868967</v>
       </c>
@@ -6270,11 +6273,11 @@
       <c r="F179" s="1">
         <v>71.12</v>
       </c>
-      <c r="G179" s="12">
+      <c r="G179" s="11">
         <f>'Scoring Average MLR Results'!B205</f>
         <v>71.731746272979677</v>
       </c>
-      <c r="H179" s="12">
+      <c r="H179" s="11">
         <f>'Scoring Average MLR Results'!C205</f>
         <v>-0.61174627297967277</v>
       </c>
@@ -6298,11 +6301,11 @@
       <c r="F180" s="1">
         <v>70.16</v>
       </c>
-      <c r="G180" s="12">
+      <c r="G180" s="11">
         <f>'Scoring Average MLR Results'!B206</f>
         <v>70.788106798851587</v>
       </c>
-      <c r="H180" s="12">
+      <c r="H180" s="11">
         <f>'Scoring Average MLR Results'!C206</f>
         <v>-0.62810679885159004</v>
       </c>
@@ -6326,11 +6329,11 @@
       <c r="F181" s="1">
         <v>69.849999999999994</v>
       </c>
-      <c r="G181" s="12">
+      <c r="G181" s="11">
         <f>'Scoring Average MLR Results'!B207</f>
         <v>70.53699304202172</v>
       </c>
-      <c r="H181" s="12">
+      <c r="H181" s="11">
         <f>'Scoring Average MLR Results'!C207</f>
         <v>-0.68699304202172584</v>
       </c>
@@ -6354,11 +6357,11 @@
       <c r="F182" s="1">
         <v>70.81</v>
       </c>
-      <c r="G182" s="12">
+      <c r="G182" s="11">
         <f>'Scoring Average MLR Results'!B208</f>
         <v>71.546105074110073</v>
       </c>
-      <c r="H182" s="12">
+      <c r="H182" s="11">
         <f>'Scoring Average MLR Results'!C208</f>
         <v>-0.7361050741100712</v>
       </c>
@@ -6382,11 +6385,11 @@
       <c r="F183" s="1">
         <v>70.89</v>
       </c>
-      <c r="G183" s="12">
+      <c r="G183" s="11">
         <f>'Scoring Average MLR Results'!B209</f>
         <v>71.644868180254676</v>
       </c>
-      <c r="H183" s="12">
+      <c r="H183" s="11">
         <f>'Scoring Average MLR Results'!C209</f>
         <v>-0.75486818025467528</v>
       </c>
@@ -6410,11 +6413,11 @@
       <c r="F184" s="1">
         <v>69.56</v>
       </c>
-      <c r="G184" s="12">
+      <c r="G184" s="11">
         <f>'Scoring Average MLR Results'!B210</f>
         <v>70.36543024559866</v>
       </c>
-      <c r="H184" s="12">
+      <c r="H184" s="11">
         <f>'Scoring Average MLR Results'!C210</f>
         <v>-0.80543024559865728</v>
       </c>
@@ -6438,11 +6441,11 @@
       <c r="F185" s="1">
         <v>68.86</v>
       </c>
-      <c r="G185" s="12">
+      <c r="G185" s="11">
         <f>'Scoring Average MLR Results'!B211</f>
         <v>69.682068541281197</v>
       </c>
-      <c r="H185" s="12">
+      <c r="H185" s="11">
         <f>'Scoring Average MLR Results'!C211</f>
         <v>-0.82206854128119744</v>
       </c>
@@ -6466,11 +6469,11 @@
       <c r="F186" s="1">
         <v>69.62</v>
       </c>
-      <c r="G186" s="12">
+      <c r="G186" s="11">
         <f>'Scoring Average MLR Results'!B212</f>
         <v>70.454023357950476</v>
       </c>
-      <c r="H186" s="12">
+      <c r="H186" s="11">
         <f>'Scoring Average MLR Results'!C212</f>
         <v>-0.83402335795047122</v>
       </c>
@@ -6494,11 +6497,11 @@
       <c r="F187" s="1">
         <v>70.010000000000005</v>
       </c>
-      <c r="G187" s="12">
+      <c r="G187" s="11">
         <f>'Scoring Average MLR Results'!B213</f>
         <v>70.853321859040761</v>
       </c>
-      <c r="H187" s="12">
+      <c r="H187" s="11">
         <f>'Scoring Average MLR Results'!C213</f>
         <v>-0.84332185904075629</v>
       </c>
@@ -6527,8 +6530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41C351D0-98DF-4F45-810C-4E6476F83695}">
   <dimension ref="A1:I213"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView topLeftCell="A207" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -6540,48 +6543,48 @@
     </row>
     <row r="2" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="B3" s="11"/>
+      <c r="B3" s="10"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="8" t="s">
+      <c r="A4" t="s">
         <v>200</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4">
         <v>0.83405474856756101</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="8" t="s">
+      <c r="A5" t="s">
         <v>201</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5">
         <v>0.69564732360809733</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="8" t="s">
+      <c r="A6" t="s">
         <v>202</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6">
         <v>0.68892129761048626</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="8" t="s">
+      <c r="A7" t="s">
         <v>203</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7">
         <v>0.3814292818708962</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="8">
         <v>186</v>
       </c>
     </row>
@@ -6591,243 +6594,241 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10" t="s">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="9" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="8" t="s">
+      <c r="A12" t="s">
         <v>206</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12">
         <v>4</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12">
         <v>60.189208015539222</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12">
         <v>15.047302003884806</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12">
         <v>103.42620201812652</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12">
         <v>1.1259307594486764E-45</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="8" t="s">
+      <c r="A13" t="s">
         <v>192</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13">
         <v>181</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13">
         <v>26.333381769407112</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13">
         <v>0.14548829706854757</v>
       </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
     </row>
     <row r="14" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="8">
         <v>185</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="8">
         <v>86.522589784946334</v>
       </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
     </row>
     <row r="15" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10" t="s">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="F16" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="G16" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="H16" s="10" t="s">
+      <c r="H16" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="I16" s="10" t="s">
+      <c r="I16" s="9" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="8" t="s">
+      <c r="A17" t="s">
         <v>193</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17">
         <v>92.894693812984528</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17">
         <v>1.4133967132700305</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17">
         <v>65.724430332134872</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17">
         <v>3.0155976552966972E-128</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17">
         <v>90.105840134831155</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G17">
         <v>95.683547491137901</v>
       </c>
-      <c r="H17" s="8">
+      <c r="H17">
         <v>90.105840134831155</v>
       </c>
-      <c r="I17" s="8">
+      <c r="I17">
         <v>95.683547491137901</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="8" t="s">
+      <c r="A18" t="s">
         <v>188</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18">
         <v>-2.5178968242436772E-2</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18">
         <v>3.6818195499777875E-3</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18">
         <v>-6.8387295739653178</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18">
         <v>1.1866060076785593E-10</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18">
         <v>-3.2443776415434708E-2</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G18">
         <v>-1.7914160069438832E-2</v>
       </c>
-      <c r="H18" s="8">
+      <c r="H18">
         <v>-3.2443776415434708E-2</v>
       </c>
-      <c r="I18" s="8">
+      <c r="I18">
         <v>-1.7914160069438832E-2</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="8" t="s">
+      <c r="A19" t="s">
+        <v>189</v>
+      </c>
+      <c r="B19">
+        <v>-0.13401930244406482</v>
+      </c>
+      <c r="C19">
+        <v>1.205114408318596E-2</v>
+      </c>
+      <c r="D19">
+        <v>-11.120877944779675</v>
+      </c>
+      <c r="E19">
+        <v>3.1454996959206309E-22</v>
+      </c>
+      <c r="F19">
+        <v>-0.15779810225787788</v>
+      </c>
+      <c r="G19">
+        <v>-0.11024050263025176</v>
+      </c>
+      <c r="H19">
+        <v>-0.15779810225787788</v>
+      </c>
+      <c r="I19">
+        <v>-0.11024050263025176</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" t="s">
         <v>190</v>
       </c>
-      <c r="B19" s="8">
-        <v>-0.13401930244406482</v>
-      </c>
-      <c r="C19" s="8">
-        <v>1.205114408318596E-2</v>
-      </c>
-      <c r="D19" s="8">
-        <v>-11.120877944779675</v>
-      </c>
-      <c r="E19" s="8">
-        <v>3.1454996959206309E-22</v>
-      </c>
-      <c r="F19" s="8">
-        <v>-0.15779810225787788</v>
-      </c>
-      <c r="G19" s="8">
-        <v>-0.11024050263025176</v>
-      </c>
-      <c r="H19" s="8">
-        <v>-0.15779810225787788</v>
-      </c>
-      <c r="I19" s="8">
-        <v>-0.11024050263025176</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="B20" s="8">
+      <c r="B20">
         <v>-0.61396481626557786</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20">
         <v>9.716391919620955E-2</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20">
         <v>-6.3188560254116339</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E20">
         <v>1.9908910219084942E-9</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20">
         <v>-0.80568448767136225</v>
       </c>
-      <c r="G20" s="8">
+      <c r="G20">
         <v>-0.42224514485979348</v>
       </c>
-      <c r="H20" s="8">
+      <c r="H20">
         <v>-0.80568448767136225</v>
       </c>
-      <c r="I20" s="8">
+      <c r="I20">
         <v>-0.42224514485979348</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="8">
         <v>-0.10230065069125741</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="8">
         <v>1.0662416001064993E-2</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="8">
         <v>-9.5945094133486553</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="8">
         <v>6.9724334759583451E-18</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="8">
         <v>-0.1233392719101893</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G21" s="8">
         <v>-8.1262029472325512E-2</v>
       </c>
-      <c r="H21" s="9">
+      <c r="H21" s="8">
         <v>-0.1233392719101893</v>
       </c>
-      <c r="I21" s="9">
+      <c r="I21" s="8">
         <v>-8.1262029472325512E-2</v>
       </c>
     </row>
@@ -6838,2059 +6839,2059 @@
     </row>
     <row r="26" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="9" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="8">
+      <c r="A28">
         <v>1</v>
       </c>
-      <c r="B28" s="8">
+      <c r="B28">
         <v>70.472738181530005</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C28">
         <v>1.1272618184699894</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="8">
+      <c r="A29">
         <v>2</v>
       </c>
-      <c r="B29" s="8">
+      <c r="B29">
         <v>71.166679314093741</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C29">
         <v>1.0133206859062653</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="8">
+      <c r="A30">
         <v>3</v>
       </c>
-      <c r="B30" s="8">
+      <c r="B30">
         <v>70.66673130409626</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C30">
         <v>0.76326869590374713</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="8">
+      <c r="A31">
         <v>4</v>
       </c>
-      <c r="B31" s="8">
+      <c r="B31">
         <v>70.646821390281687</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C31">
         <v>0.72317860971831749</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="8">
+      <c r="A32">
         <v>5</v>
       </c>
-      <c r="B32" s="8">
+      <c r="B32">
         <v>70.2184901366047</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32">
         <v>0.72150986339529766</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="8">
+      <c r="A33">
         <v>6</v>
       </c>
-      <c r="B33" s="8">
+      <c r="B33">
         <v>71.769917198364354</v>
       </c>
-      <c r="C33" s="8">
+      <c r="C33">
         <v>0.72008280163564109</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="8">
+      <c r="A34">
         <v>7</v>
       </c>
-      <c r="B34" s="8">
+      <c r="B34">
         <v>70.663439371732494</v>
       </c>
-      <c r="C34" s="8">
+      <c r="C34">
         <v>0.71656062826750144</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="8">
+      <c r="A35">
         <v>8</v>
       </c>
-      <c r="B35" s="8">
+      <c r="B35">
         <v>71.94926317506598</v>
       </c>
-      <c r="C35" s="8">
+      <c r="C35">
         <v>0.66073682493401975</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="8">
+      <c r="A36">
         <v>9</v>
       </c>
-      <c r="B36" s="8">
+      <c r="B36">
         <v>70.832305951950545</v>
       </c>
-      <c r="C36" s="8">
+      <c r="C36">
         <v>0.64769404804945907</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="8">
+      <c r="A37">
         <v>10</v>
       </c>
-      <c r="B37" s="8">
+      <c r="B37">
         <v>71.901783238135522</v>
       </c>
-      <c r="C37" s="8">
+      <c r="C37">
         <v>0.63821676186448428</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="8">
+      <c r="A38">
         <v>11</v>
       </c>
-      <c r="B38" s="8">
+      <c r="B38">
         <v>70.308527857985425</v>
       </c>
-      <c r="C38" s="8">
+      <c r="C38">
         <v>0.63147214201457302</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="8">
+      <c r="A39">
         <v>12</v>
       </c>
-      <c r="B39" s="8">
+      <c r="B39">
         <v>70.744535697911786</v>
       </c>
-      <c r="C39" s="8">
+      <c r="C39">
         <v>0.59546430208821732</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="8">
+      <c r="A40">
         <v>13</v>
       </c>
-      <c r="B40" s="8">
+      <c r="B40">
         <v>70.466755874427207</v>
       </c>
-      <c r="C40" s="8">
+      <c r="C40">
         <v>0.58324412557279004</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="8">
+      <c r="A41">
         <v>14</v>
       </c>
-      <c r="B41" s="8">
+      <c r="B41">
         <v>70.148188159936083</v>
       </c>
-      <c r="C41" s="8">
+      <c r="C41">
         <v>0.58181184006392073</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="8">
+      <c r="A42">
         <v>15</v>
       </c>
-      <c r="B42" s="8">
+      <c r="B42">
         <v>71.520470630520578</v>
       </c>
-      <c r="C42" s="8">
+      <c r="C42">
         <v>0.55952936947942078</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="8">
+      <c r="A43">
         <v>16</v>
       </c>
-      <c r="B43" s="8">
+      <c r="B43">
         <v>71.122275772769342</v>
       </c>
-      <c r="C43" s="8">
+      <c r="C43">
         <v>0.55772422723066484</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="8">
+      <c r="A44">
         <v>17</v>
       </c>
-      <c r="B44" s="8">
+      <c r="B44">
         <v>70.247770867527947</v>
       </c>
-      <c r="C44" s="8">
+      <c r="C44">
         <v>0.55222913247204986</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="8">
+      <c r="A45">
         <v>18</v>
       </c>
-      <c r="B45" s="8">
+      <c r="B45">
         <v>70.161185700949957</v>
       </c>
-      <c r="C45" s="8">
+      <c r="C45">
         <v>0.54881429905003642</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="8">
+      <c r="A46">
         <v>19</v>
       </c>
-      <c r="B46" s="8">
+      <c r="B46">
         <v>71.50723059406883</v>
       </c>
-      <c r="C46" s="8">
+      <c r="C46">
         <v>0.54276940593116763</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="8">
+      <c r="A47">
         <v>20</v>
       </c>
-      <c r="B47" s="8">
+      <c r="B47">
         <v>71.116714601644034</v>
       </c>
-      <c r="C47" s="8">
+      <c r="C47">
         <v>0.51328539835596132</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="8">
+      <c r="A48">
         <v>21</v>
       </c>
-      <c r="B48" s="8">
+      <c r="B48">
         <v>70.772450337490412</v>
       </c>
-      <c r="C48" s="8">
+      <c r="C48">
         <v>0.48754966250959342</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="8">
+      <c r="A49">
         <v>22</v>
       </c>
-      <c r="B49" s="8">
+      <c r="B49">
         <v>71.257397635016815</v>
       </c>
-      <c r="C49" s="8">
+      <c r="C49">
         <v>0.45260236498317852</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="8">
+      <c r="A50">
         <v>23</v>
       </c>
-      <c r="B50" s="8">
+      <c r="B50">
         <v>72.30812686850382</v>
       </c>
-      <c r="C50" s="8">
+      <c r="C50">
         <v>0.45187313149618547</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="8">
+      <c r="A51">
         <v>24</v>
       </c>
-      <c r="B51" s="8">
+      <c r="B51">
         <v>70.713505930203695</v>
       </c>
-      <c r="C51" s="8">
+      <c r="C51">
         <v>0.44649406979630157</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="8">
+      <c r="A52">
         <v>25</v>
       </c>
-      <c r="B52" s="8">
+      <c r="B52">
         <v>70.346452840202105</v>
       </c>
-      <c r="C52" s="8">
+      <c r="C52">
         <v>0.44354715979790171</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="8">
+      <c r="A53">
         <v>26</v>
       </c>
-      <c r="B53" s="8">
+      <c r="B53">
         <v>71.073124051232654</v>
       </c>
-      <c r="C53" s="8">
+      <c r="C53">
         <v>0.43687594876735147</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="8">
+      <c r="A54">
         <v>27</v>
       </c>
-      <c r="B54" s="8">
+      <c r="B54">
         <v>70.265913772480431</v>
       </c>
-      <c r="C54" s="8">
+      <c r="C54">
         <v>0.43408622751957182</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="8">
+      <c r="A55">
         <v>28</v>
       </c>
-      <c r="B55" s="8">
+      <c r="B55">
         <v>70.556954970161655</v>
       </c>
-      <c r="C55" s="8">
+      <c r="C55">
         <v>0.4330450298383397</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" s="8">
+      <c r="A56">
         <v>29</v>
       </c>
-      <c r="B56" s="8">
+      <c r="B56">
         <v>70.399375656915211</v>
       </c>
-      <c r="C56" s="8">
+      <c r="C56">
         <v>0.43062434308478714</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" s="8">
+      <c r="A57">
         <v>30</v>
       </c>
-      <c r="B57" s="8">
+      <c r="B57">
         <v>71.423276105618868</v>
       </c>
-      <c r="C57" s="8">
+      <c r="C57">
         <v>0.40672389438113044</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" s="8">
+      <c r="A58">
         <v>31</v>
       </c>
-      <c r="B58" s="8">
+      <c r="B58">
         <v>70.418404169732511</v>
       </c>
-      <c r="C58" s="8">
+      <c r="C58">
         <v>0.33159583026748862</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" s="8">
+      <c r="A59">
         <v>32</v>
       </c>
-      <c r="B59" s="8">
+      <c r="B59">
         <v>70.438895142051337</v>
       </c>
-      <c r="C59" s="8">
+      <c r="C59">
         <v>0.31110485794866349</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" s="8">
+      <c r="A60">
         <v>33</v>
       </c>
-      <c r="B60" s="8">
+      <c r="B60">
         <v>72.671280848755444</v>
       </c>
-      <c r="C60" s="8">
+      <c r="C60">
         <v>0.30871915124455995</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61" s="8">
+      <c r="A61">
         <v>34</v>
       </c>
-      <c r="B61" s="8">
+      <c r="B61">
         <v>70.8143948712069</v>
       </c>
-      <c r="C61" s="8">
+      <c r="C61">
         <v>0.30560512879310409</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62" s="8">
+      <c r="A62">
         <v>35</v>
       </c>
-      <c r="B62" s="8">
+      <c r="B62">
         <v>71.027145070481239</v>
       </c>
-      <c r="C62" s="8">
+      <c r="C62">
         <v>0.30285492951875881</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63" s="8">
+      <c r="A63">
         <v>36</v>
       </c>
-      <c r="B63" s="8">
+      <c r="B63">
         <v>70.154835718541534</v>
       </c>
-      <c r="C63" s="8">
+      <c r="C63">
         <v>0.28516428145846362</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A64" s="8">
+      <c r="A64">
         <v>37</v>
       </c>
-      <c r="B64" s="8">
+      <c r="B64">
         <v>70.906247755213428</v>
       </c>
-      <c r="C64" s="8">
+      <c r="C64">
         <v>0.28375224478656946</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A65" s="8">
+      <c r="A65">
         <v>38</v>
       </c>
-      <c r="B65" s="8">
+      <c r="B65">
         <v>70.317622535188448</v>
       </c>
-      <c r="C65" s="8">
+      <c r="C65">
         <v>0.28237746481154602</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A66" s="8">
+      <c r="A66">
         <v>39</v>
       </c>
-      <c r="B66" s="8">
+      <c r="B66">
         <v>71.35183240539358</v>
       </c>
-      <c r="C66" s="8">
+      <c r="C66">
         <v>0.27816759460641549</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A67" s="8">
+      <c r="A67">
         <v>40</v>
       </c>
-      <c r="B67" s="8">
+      <c r="B67">
         <v>70.85265343773753</v>
       </c>
-      <c r="C67" s="8">
+      <c r="C67">
         <v>0.27734656226246557</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A68" s="8">
+      <c r="A68">
         <v>41</v>
       </c>
-      <c r="B68" s="8">
+      <c r="B68">
         <v>69.400738235905209</v>
       </c>
-      <c r="C68" s="8">
+      <c r="C68">
         <v>0.25926176409478785</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A69" s="8">
+      <c r="A69">
         <v>42</v>
       </c>
-      <c r="B69" s="8">
+      <c r="B69">
         <v>70.931657865238506</v>
       </c>
-      <c r="C69" s="8">
+      <c r="C69">
         <v>0.24834213476150069</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A70" s="8">
+      <c r="A70">
         <v>43</v>
       </c>
-      <c r="B70" s="8">
+      <c r="B70">
         <v>70.087553506588364</v>
       </c>
-      <c r="C70" s="8">
+      <c r="C70">
         <v>0.24244649341163438</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A71" s="8">
+      <c r="A71">
         <v>44</v>
       </c>
-      <c r="B71" s="8">
+      <c r="B71">
         <v>71.06361881481017</v>
       </c>
-      <c r="C71" s="8">
+      <c r="C71">
         <v>0.23638118518982765</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A72" s="8">
+      <c r="A72">
         <v>45</v>
       </c>
-      <c r="B72" s="8">
+      <c r="B72">
         <v>70.831769357685559</v>
       </c>
-      <c r="C72" s="8">
+      <c r="C72">
         <v>0.22823064231444334</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A73" s="8">
+      <c r="A73">
         <v>46</v>
       </c>
-      <c r="B73" s="8">
+      <c r="B73">
         <v>70.319587616935578</v>
       </c>
-      <c r="C73" s="8">
+      <c r="C73">
         <v>0.21041238306442267</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A74" s="8">
+      <c r="A74">
         <v>47</v>
       </c>
-      <c r="B74" s="8">
+      <c r="B74">
         <v>71.070560684413948</v>
       </c>
-      <c r="C74" s="8">
+      <c r="C74">
         <v>0.209439315586053</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A75" s="8">
+      <c r="A75">
         <v>48</v>
       </c>
-      <c r="B75" s="8">
+      <c r="B75">
         <v>71.311334212379009</v>
       </c>
-      <c r="C75" s="8">
+      <c r="C75">
         <v>0.20866578762098698</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A76" s="8">
+      <c r="A76">
         <v>49</v>
       </c>
-      <c r="B76" s="8">
+      <c r="B76">
         <v>70.213341008555673</v>
       </c>
-      <c r="C76" s="8">
+      <c r="C76">
         <v>0.20665899144432842</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A77" s="8">
+      <c r="A77">
         <v>50</v>
       </c>
-      <c r="B77" s="8">
+      <c r="B77">
         <v>70.604744128161215</v>
       </c>
-      <c r="C77" s="8">
+      <c r="C77">
         <v>0.20525587183878713</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A78" s="8">
+      <c r="A78">
         <v>51</v>
       </c>
-      <c r="B78" s="8">
+      <c r="B78">
         <v>70.231775653431697</v>
       </c>
-      <c r="C78" s="8">
+      <c r="C78">
         <v>0.19822434656830978</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A79" s="8">
+      <c r="A79">
         <v>52</v>
       </c>
-      <c r="B79" s="8">
+      <c r="B79">
         <v>70.672654453735092</v>
       </c>
-      <c r="C79" s="8">
+      <c r="C79">
         <v>0.19734554626491274</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A80" s="8">
+      <c r="A80">
         <v>53</v>
       </c>
-      <c r="B80" s="8">
+      <c r="B80">
         <v>71.139028536988036</v>
       </c>
-      <c r="C80" s="8">
+      <c r="C80">
         <v>0.19097146301196233</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A81" s="8">
+      <c r="A81">
         <v>54</v>
       </c>
-      <c r="B81" s="8">
+      <c r="B81">
         <v>71.283244660655825</v>
       </c>
-      <c r="C81" s="8">
+      <c r="C81">
         <v>0.17675533934416876</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A82" s="8">
+      <c r="A82">
         <v>55</v>
       </c>
-      <c r="B82" s="8">
+      <c r="B82">
         <v>71.701961897190586</v>
       </c>
-      <c r="C82" s="8">
+      <c r="C82">
         <v>0.16803810280941889</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A83" s="8">
+      <c r="A83">
         <v>56</v>
       </c>
-      <c r="B83" s="8">
+      <c r="B83">
         <v>70.676688202817999</v>
       </c>
-      <c r="C83" s="8">
+      <c r="C83">
         <v>0.16331179718200417</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A84" s="8">
+      <c r="A84">
         <v>57</v>
       </c>
-      <c r="B84" s="8">
+      <c r="B84">
         <v>70.377060664586054</v>
       </c>
-      <c r="C84" s="8">
+      <c r="C84">
         <v>0.16293933541395234</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A85" s="8">
+      <c r="A85">
         <v>58</v>
       </c>
-      <c r="B85" s="8">
+      <c r="B85">
         <v>70.810494235915044</v>
       </c>
-      <c r="C85" s="8">
+      <c r="C85">
         <v>0.15950576408495465</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A86" s="8">
+      <c r="A86">
         <v>59</v>
       </c>
-      <c r="B86" s="8">
+      <c r="B86">
         <v>71.261635359213102</v>
       </c>
-      <c r="C86" s="8">
+      <c r="C86">
         <v>0.15836464078689971</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A87" s="8">
+      <c r="A87">
         <v>60</v>
       </c>
-      <c r="B87" s="8">
+      <c r="B87">
         <v>71.176160603324661</v>
       </c>
-      <c r="C87" s="8">
+      <c r="C87">
         <v>0.15383939667533753</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A88" s="8">
+      <c r="A88">
         <v>61</v>
       </c>
-      <c r="B88" s="8">
+      <c r="B88">
         <v>70.516315895252916</v>
       </c>
-      <c r="C88" s="8">
+      <c r="C88">
         <v>0.15368410474708583</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A89" s="8">
+      <c r="A89">
         <v>62</v>
       </c>
-      <c r="B89" s="8">
+      <c r="B89">
         <v>70.474657955799131</v>
       </c>
-      <c r="C89" s="8">
+      <c r="C89">
         <v>0.14534204420087349</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A90" s="8">
+      <c r="A90">
         <v>63</v>
       </c>
-      <c r="B90" s="8">
+      <c r="B90">
         <v>69.579176802121879</v>
       </c>
-      <c r="C90" s="8">
+      <c r="C90">
         <v>0.13082319787811514</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A91" s="8">
+      <c r="A91">
         <v>64</v>
       </c>
-      <c r="B91" s="8">
+      <c r="B91">
         <v>70.210015639026693</v>
       </c>
-      <c r="C91" s="8">
+      <c r="C91">
         <v>0.12998436097331023</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A92" s="8">
+      <c r="A92">
         <v>65</v>
       </c>
-      <c r="B92" s="8">
+      <c r="B92">
         <v>70.872678587534523</v>
       </c>
-      <c r="C92" s="8">
+      <c r="C92">
         <v>0.12732141246547712</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A93" s="8">
+      <c r="A93">
         <v>66</v>
       </c>
-      <c r="B93" s="8">
+      <c r="B93">
         <v>70.791722952952028</v>
       </c>
-      <c r="C93" s="8">
+      <c r="C93">
         <v>0.11827704704796815</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A94" s="8">
+      <c r="A94">
         <v>67</v>
       </c>
-      <c r="B94" s="8">
+      <c r="B94">
         <v>70.694868414900327</v>
       </c>
-      <c r="C94" s="8">
+      <c r="C94">
         <v>0.11513158509967525</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A95" s="8">
+      <c r="A95">
         <v>68</v>
       </c>
-      <c r="B95" s="8">
+      <c r="B95">
         <v>70.718838573912763</v>
       </c>
-      <c r="C95" s="8">
+      <c r="C95">
         <v>0.11116142608723578</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A96" s="8">
+      <c r="A96">
         <v>69</v>
       </c>
-      <c r="B96" s="8">
+      <c r="B96">
         <v>71.034737607370928</v>
       </c>
-      <c r="C96" s="8">
+      <c r="C96">
         <v>0.10526239262907211</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A97" s="8">
+      <c r="A97">
         <v>70</v>
       </c>
-      <c r="B97" s="8">
+      <c r="B97">
         <v>71.117250517871767</v>
       </c>
-      <c r="C97" s="8">
+      <c r="C97">
         <v>0.10274948212823176</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A98" s="8">
+      <c r="A98">
         <v>71</v>
       </c>
-      <c r="B98" s="8">
+      <c r="B98">
         <v>70.477323961135326</v>
       </c>
-      <c r="C98" s="8">
+      <c r="C98">
         <v>0.10267603886467214</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A99" s="8">
+      <c r="A99">
         <v>72</v>
       </c>
-      <c r="B99" s="8">
+      <c r="B99">
         <v>71.78755358529132</v>
       </c>
-      <c r="C99" s="8">
+      <c r="C99">
         <v>0.10244641470868032</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A100" s="8">
+      <c r="A100">
         <v>73</v>
       </c>
-      <c r="B100" s="8">
+      <c r="B100">
         <v>71.419115438959437</v>
       </c>
-      <c r="C100" s="8">
+      <c r="C100">
         <v>0.10088456104055865</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A101" s="8">
+      <c r="A101">
         <v>74</v>
       </c>
-      <c r="B101" s="8">
+      <c r="B101">
         <v>70.940961406874294</v>
       </c>
-      <c r="C101" s="8">
+      <c r="C101">
         <v>9.9038593125712282E-2</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A102" s="8">
+      <c r="A102">
         <v>75</v>
       </c>
-      <c r="B102" s="8">
+      <c r="B102">
         <v>70.752046915334731</v>
       </c>
-      <c r="C102" s="8">
+      <c r="C102">
         <v>9.7953084665263646E-2</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A103" s="8">
+      <c r="A103">
         <v>76</v>
       </c>
-      <c r="B103" s="8">
+      <c r="B103">
         <v>70.85540546128243</v>
       </c>
-      <c r="C103" s="8">
+      <c r="C103">
         <v>9.4594538717572618E-2</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A104" s="8">
+      <c r="A104">
         <v>77</v>
       </c>
-      <c r="B104" s="8">
+      <c r="B104">
         <v>71.599892955240392</v>
       </c>
-      <c r="C104" s="8">
+      <c r="C104">
         <v>9.0107044759605515E-2</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A105" s="8">
+      <c r="A105">
         <v>78</v>
       </c>
-      <c r="B105" s="8">
+      <c r="B105">
         <v>71.090108071578925</v>
       </c>
-      <c r="C105" s="8">
+      <c r="C105">
         <v>8.9891928421081957E-2</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A106" s="8">
+      <c r="A106">
         <v>79</v>
       </c>
-      <c r="B106" s="8">
+      <c r="B106">
         <v>71.133821622137106</v>
       </c>
-      <c r="C106" s="8">
+      <c r="C106">
         <v>8.6178377862893285E-2</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A107" s="8">
+      <c r="A107">
         <v>80</v>
       </c>
-      <c r="B107" s="8">
+      <c r="B107">
         <v>70.820307091925841</v>
       </c>
-      <c r="C107" s="8">
+      <c r="C107">
         <v>7.9692908074164848E-2</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A108" s="8">
+      <c r="A108">
         <v>81</v>
       </c>
-      <c r="B108" s="8">
+      <c r="B108">
         <v>70.358369263794103</v>
       </c>
-      <c r="C108" s="8">
+      <c r="C108">
         <v>7.16307362059041E-2</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A109" s="8">
+      <c r="A109">
         <v>82</v>
       </c>
-      <c r="B109" s="8">
+      <c r="B109">
         <v>71.029048054204424</v>
       </c>
-      <c r="C109" s="8">
+      <c r="C109">
         <v>7.0951945795570737E-2</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A110" s="8">
+      <c r="A110">
         <v>83</v>
       </c>
-      <c r="B110" s="8">
+      <c r="B110">
         <v>70.695128216519294</v>
       </c>
-      <c r="C110" s="8">
+      <c r="C110">
         <v>6.4871783480711542E-2</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A111" s="8">
+      <c r="A111">
         <v>84</v>
       </c>
-      <c r="B111" s="8">
+      <c r="B111">
         <v>70.891646320112187</v>
       </c>
-      <c r="C111" s="8">
+      <c r="C111">
         <v>5.8353679887815701E-2</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A112" s="8">
+      <c r="A112">
         <v>85</v>
       </c>
-      <c r="B112" s="8">
+      <c r="B112">
         <v>71.694684365350113</v>
       </c>
-      <c r="C112" s="8">
+      <c r="C112">
         <v>5.5315634649886647E-2</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A113" s="8">
+      <c r="A113">
         <v>86</v>
       </c>
-      <c r="B113" s="8">
+      <c r="B113">
         <v>71.585795608077348</v>
       </c>
-      <c r="C113" s="8">
+      <c r="C113">
         <v>5.4204391922652917E-2</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A114" s="8">
+      <c r="A114">
         <v>87</v>
       </c>
-      <c r="B114" s="8">
+      <c r="B114">
         <v>70.690820932260948</v>
       </c>
-      <c r="C114" s="8">
+      <c r="C114">
         <v>4.91790677390469E-2</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A115" s="8">
+      <c r="A115">
         <v>88</v>
       </c>
-      <c r="B115" s="8">
+      <c r="B115">
         <v>70.085577581391078</v>
       </c>
-      <c r="C115" s="8">
+      <c r="C115">
         <v>4.4422418608917269E-2</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A116" s="8">
+      <c r="A116">
         <v>89</v>
       </c>
-      <c r="B116" s="8">
+      <c r="B116">
         <v>70.947696889446178</v>
       </c>
-      <c r="C116" s="8">
+      <c r="C116">
         <v>4.2303110553817191E-2</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A117" s="8">
+      <c r="A117">
         <v>90</v>
       </c>
-      <c r="B117" s="8">
+      <c r="B117">
         <v>70.38907226358495</v>
       </c>
-      <c r="C117" s="8">
+      <c r="C117">
         <v>4.092773641505687E-2</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A118" s="8">
+      <c r="A118">
         <v>91</v>
       </c>
-      <c r="B118" s="8">
+      <c r="B118">
         <v>71.494985922917181</v>
       </c>
-      <c r="C118" s="8">
+      <c r="C118">
         <v>3.501407708282045E-2</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A119" s="8">
+      <c r="A119">
         <v>92</v>
       </c>
-      <c r="B119" s="8">
+      <c r="B119">
         <v>70.567180483828693</v>
       </c>
-      <c r="C119" s="8">
+      <c r="C119">
         <v>3.2819516171301188E-2</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A120" s="8">
+      <c r="A120">
         <v>93</v>
       </c>
-      <c r="B120" s="8">
+      <c r="B120">
         <v>71.267711964506276</v>
       </c>
-      <c r="C120" s="8">
+      <c r="C120">
         <v>3.2288035493721168E-2</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A121" s="8">
+      <c r="A121">
         <v>94</v>
       </c>
-      <c r="B121" s="8">
+      <c r="B121">
         <v>71.869936023701172</v>
       </c>
-      <c r="C121" s="8">
+      <c r="C121">
         <v>3.006397629883395E-2</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A122" s="8">
+      <c r="A122">
         <v>95</v>
       </c>
-      <c r="B122" s="8">
+      <c r="B122">
         <v>70.810073569093404</v>
       </c>
-      <c r="C122" s="8">
+      <c r="C122">
         <v>2.9926430906598966E-2</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A123" s="8">
+      <c r="A123">
         <v>96</v>
       </c>
-      <c r="B123" s="8">
+      <c r="B123">
         <v>70.499354930152222</v>
       </c>
-      <c r="C123" s="8">
+      <c r="C123">
         <v>2.0645069847773811E-2</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A124" s="8">
+      <c r="A124">
         <v>97</v>
       </c>
-      <c r="B124" s="8">
+      <c r="B124">
         <v>70.632232682237714</v>
       </c>
-      <c r="C124" s="8">
+      <c r="C124">
         <v>1.7767317762292123E-2</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A125" s="8">
+      <c r="A125">
         <v>98</v>
       </c>
-      <c r="B125" s="8">
+      <c r="B125">
         <v>70.314984297597988</v>
       </c>
-      <c r="C125" s="8">
+      <c r="C125">
         <v>1.5015702402010334E-2</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A126" s="8">
+      <c r="A126">
         <v>99</v>
       </c>
-      <c r="B126" s="8">
+      <c r="B126">
         <v>71.609553178000354</v>
       </c>
-      <c r="C126" s="8">
+      <c r="C126">
         <v>1.0446821999650524E-2</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A127" s="8">
+      <c r="A127">
         <v>100</v>
       </c>
-      <c r="B127" s="8">
+      <c r="B127">
         <v>70.922620891067965</v>
       </c>
-      <c r="C127" s="8">
+      <c r="C127">
         <v>7.3791089320422998E-3</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A128" s="8">
+      <c r="A128">
         <v>101</v>
       </c>
-      <c r="B128" s="8">
+      <c r="B128">
         <v>71.212856195299338</v>
       </c>
-      <c r="C128" s="8">
+      <c r="C128">
         <v>7.143804700660894E-3</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A129" s="8">
+      <c r="A129">
         <v>102</v>
       </c>
-      <c r="B129" s="8">
+      <c r="B129">
         <v>71.63453497573623</v>
       </c>
-      <c r="C129" s="8">
+      <c r="C129">
         <v>5.4650242637706015E-3</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A130" s="8">
+      <c r="A130">
         <v>103</v>
       </c>
-      <c r="B130" s="8">
+      <c r="B130">
         <v>70.627319963275326</v>
       </c>
-      <c r="C130" s="8">
+      <c r="C130">
         <v>2.6800367246693213E-3</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A131" s="8">
+      <c r="A131">
         <v>104</v>
       </c>
-      <c r="B131" s="8">
+      <c r="B131">
         <v>70.745803179773887</v>
       </c>
-      <c r="C131" s="8">
+      <c r="C131">
         <v>-5.8031797738919977E-3</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A132" s="8">
+      <c r="A132">
         <v>105</v>
       </c>
-      <c r="B132" s="8">
+      <c r="B132">
         <v>70.798782194548281</v>
       </c>
-      <c r="C132" s="8">
+      <c r="C132">
         <v>-1.8782194548279563E-2</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A133" s="8">
+      <c r="A133">
         <v>106</v>
       </c>
-      <c r="B133" s="8">
+      <c r="B133">
         <v>69.545897053319791</v>
       </c>
-      <c r="C133" s="8">
+      <c r="C133">
         <v>-2.5897053319795305E-2</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A134" s="8">
+      <c r="A134">
         <v>107</v>
       </c>
-      <c r="B134" s="8">
+      <c r="B134">
         <v>70.476430495346904</v>
       </c>
-      <c r="C134" s="8">
+      <c r="C134">
         <v>-4.6430495346896805E-2</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A135" s="8">
+      <c r="A135">
         <v>108</v>
       </c>
-      <c r="B135" s="8">
+      <c r="B135">
         <v>69.924820539599324</v>
       </c>
-      <c r="C135" s="8">
+      <c r="C135">
         <v>-5.4820539599319318E-2</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A136" s="8">
+      <c r="A136">
         <v>109</v>
       </c>
-      <c r="B136" s="8">
+      <c r="B136">
         <v>71.637814625691647</v>
       </c>
-      <c r="C136" s="8">
+      <c r="C136">
         <v>-5.7814625691648303E-2</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A137" s="8">
+      <c r="A137">
         <v>110</v>
       </c>
-      <c r="B137" s="8">
+      <c r="B137">
         <v>71.923849560411341</v>
       </c>
-      <c r="C137" s="8">
+      <c r="C137">
         <v>-6.3849560411341599E-2</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A138" s="8">
+      <c r="A138">
         <v>111</v>
       </c>
-      <c r="B138" s="8">
+      <c r="B138">
         <v>70.813284756408052</v>
       </c>
-      <c r="C138" s="8">
+      <c r="C138">
         <v>-8.3284756408048111E-2</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A139" s="8">
+      <c r="A139">
         <v>112</v>
       </c>
-      <c r="B139" s="8">
+      <c r="B139">
         <v>71.218616322314077</v>
       </c>
-      <c r="C139" s="8">
+      <c r="C139">
         <v>-8.8616322314081231E-2</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A140" s="8">
+      <c r="A140">
         <v>113</v>
       </c>
-      <c r="B140" s="8">
+      <c r="B140">
         <v>71.989486494341406</v>
       </c>
-      <c r="C140" s="8">
+      <c r="C140">
         <v>-8.9486494341400658E-2</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A141" s="8">
+      <c r="A141">
         <v>114</v>
       </c>
-      <c r="B141" s="8">
+      <c r="B141">
         <v>70.295276597289558</v>
       </c>
-      <c r="C141" s="8">
+      <c r="C141">
         <v>-9.5276597289554843E-2</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A142" s="8">
+      <c r="A142">
         <v>115</v>
       </c>
-      <c r="B142" s="8">
+      <c r="B142">
         <v>71.215728757204772</v>
       </c>
-      <c r="C142" s="8">
+      <c r="C142">
         <v>-9.5728757204767589E-2</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A143" s="8">
+      <c r="A143">
         <v>116</v>
       </c>
-      <c r="B143" s="8">
+      <c r="B143">
         <v>71.72571224489964</v>
       </c>
-      <c r="C143" s="8">
+      <c r="C143">
         <v>-0.10571224489963527</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A144" s="8">
+      <c r="A144">
         <v>117</v>
       </c>
-      <c r="B144" s="8">
+      <c r="B144">
         <v>71.546603989187759</v>
       </c>
-      <c r="C144" s="8">
+      <c r="C144">
         <v>-0.10660398918776082</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A145" s="8">
+      <c r="A145">
         <v>118</v>
       </c>
-      <c r="B145" s="8">
+      <c r="B145">
         <v>71.820820293875244</v>
       </c>
-      <c r="C145" s="8">
+      <c r="C145">
         <v>-0.12082029387524074</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A146" s="8">
+      <c r="A146">
         <v>119</v>
       </c>
-      <c r="B146" s="8">
+      <c r="B146">
         <v>70.096706080754771</v>
       </c>
-      <c r="C146" s="8">
+      <c r="C146">
         <v>-0.12670608075477219</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A147" s="8">
+      <c r="A147">
         <v>120</v>
       </c>
-      <c r="B147" s="8">
+      <c r="B147">
         <v>70.365461132756096</v>
       </c>
-      <c r="C147" s="8">
+      <c r="C147">
         <v>-0.13546113275609173</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A148" s="8">
+      <c r="A148">
         <v>121</v>
       </c>
-      <c r="B148" s="8">
+      <c r="B148">
         <v>70.957326720858759</v>
       </c>
-      <c r="C148" s="8">
+      <c r="C148">
         <v>-0.15732672085876231</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A149" s="8">
+      <c r="A149">
         <v>122</v>
       </c>
-      <c r="B149" s="8">
+      <c r="B149">
         <v>70.058516680426138</v>
       </c>
-      <c r="C149" s="8">
+      <c r="C149">
         <v>-0.15851668042613198</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A150" s="8">
+      <c r="A150">
         <v>123</v>
       </c>
-      <c r="B150" s="8">
+      <c r="B150">
         <v>70.580490768950924</v>
       </c>
-      <c r="C150" s="8">
+      <c r="C150">
         <v>-0.16049076895092185</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A151" s="8">
+      <c r="A151">
         <v>124</v>
       </c>
-      <c r="B151" s="8">
+      <c r="B151">
         <v>71.081733885131641</v>
       </c>
-      <c r="C151" s="8">
+      <c r="C151">
         <v>-0.17173388513164412</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A152" s="8">
+      <c r="A152">
         <v>125</v>
       </c>
-      <c r="B152" s="8">
+      <c r="B152">
         <v>71.174397707342962</v>
       </c>
-      <c r="C152" s="8">
+      <c r="C152">
         <v>-0.17439770734296189</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A153" s="8">
+      <c r="A153">
         <v>126</v>
       </c>
-      <c r="B153" s="8">
+      <c r="B153">
         <v>70.467031679120936</v>
       </c>
-      <c r="C153" s="8">
+      <c r="C153">
         <v>-0.17703167912092965</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A154" s="8">
+      <c r="A154">
         <v>127</v>
       </c>
-      <c r="B154" s="8">
+      <c r="B154">
         <v>69.888441613553624</v>
       </c>
-      <c r="C154" s="8">
+      <c r="C154">
         <v>-0.17844161355363042</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A155" s="8">
+      <c r="A155">
         <v>128</v>
       </c>
-      <c r="B155" s="8">
+      <c r="B155">
         <v>70.449836318041363</v>
       </c>
-      <c r="C155" s="8">
+      <c r="C155">
         <v>-0.17983631804136735</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A156" s="8">
+      <c r="A156">
         <v>129</v>
       </c>
-      <c r="B156" s="8">
+      <c r="B156">
         <v>70.802749805856706</v>
       </c>
-      <c r="C156" s="8">
+      <c r="C156">
         <v>-0.19274980585670676</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A157" s="8">
+      <c r="A157">
         <v>130</v>
       </c>
-      <c r="B157" s="8">
+      <c r="B157">
         <v>71.067044944567328</v>
       </c>
-      <c r="C157" s="8">
+      <c r="C157">
         <v>-0.19704494456732391</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A158" s="8">
+      <c r="A158">
         <v>131</v>
       </c>
-      <c r="B158" s="8">
+      <c r="B158">
         <v>71.026031345098133</v>
       </c>
-      <c r="C158" s="8">
+      <c r="C158">
         <v>-0.2060313450981397</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A159" s="8">
+      <c r="A159">
         <v>132</v>
       </c>
-      <c r="B159" s="8">
+      <c r="B159">
         <v>71.238582284597413</v>
       </c>
-      <c r="C159" s="8">
+      <c r="C159">
         <v>-0.21858228459741724</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A160" s="8">
+      <c r="A160">
         <v>133</v>
       </c>
-      <c r="B160" s="8">
+      <c r="B160">
         <v>70.843177519275315</v>
       </c>
-      <c r="C160" s="8">
+      <c r="C160">
         <v>-0.22317751927531049</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A161" s="8">
+      <c r="A161">
         <v>134</v>
       </c>
-      <c r="B161" s="8">
+      <c r="B161">
         <v>70.113784402343441</v>
       </c>
-      <c r="C161" s="8">
+      <c r="C161">
         <v>-0.22378440234344055</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A162" s="8">
+      <c r="A162">
         <v>135</v>
       </c>
-      <c r="B162" s="8">
+      <c r="B162">
         <v>71.774029199560559</v>
       </c>
-      <c r="C162" s="8">
+      <c r="C162">
         <v>-0.22402919956056166</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A163" s="8">
+      <c r="A163">
         <v>136</v>
       </c>
-      <c r="B163" s="8">
+      <c r="B163">
         <v>71.078089981239458</v>
       </c>
-      <c r="C163" s="8">
+      <c r="C163">
         <v>-0.22808998123946367</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A164" s="8">
+      <c r="A164">
         <v>137</v>
       </c>
-      <c r="B164" s="8">
+      <c r="B164">
         <v>70.712446960651803</v>
       </c>
-      <c r="C164" s="8">
+      <c r="C164">
         <v>-0.24244696065180449</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A165" s="8">
+      <c r="A165">
         <v>138</v>
       </c>
-      <c r="B165" s="8">
+      <c r="B165">
         <v>70.974556977565044</v>
       </c>
-      <c r="C165" s="8">
+      <c r="C165">
         <v>-0.27455697756504094</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A166" s="8">
+      <c r="A166">
         <v>139</v>
       </c>
-      <c r="B166" s="8">
+      <c r="B166">
         <v>71.282560088431225</v>
       </c>
-      <c r="C166" s="8">
+      <c r="C166">
         <v>-0.28256008843122515</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A167" s="8">
+      <c r="A167">
         <v>140</v>
       </c>
-      <c r="B167" s="8">
+      <c r="B167">
         <v>72.008593795413447</v>
       </c>
-      <c r="C167" s="8">
+      <c r="C167">
         <v>-0.28859379541344765</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A168" s="8">
+      <c r="A168">
         <v>141</v>
       </c>
-      <c r="B168" s="8">
+      <c r="B168">
         <v>72.302955513398786</v>
       </c>
-      <c r="C168" s="8">
+      <c r="C168">
         <v>-0.29295551339878045</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A169" s="8">
+      <c r="A169">
         <v>142</v>
       </c>
-      <c r="B169" s="8">
+      <c r="B169">
         <v>72.09859107456532</v>
       </c>
-      <c r="C169" s="8">
+      <c r="C169">
         <v>-0.29859107456532286</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A170" s="8">
+      <c r="A170">
         <v>143</v>
       </c>
-      <c r="B170" s="8">
+      <c r="B170">
         <v>69.660533244120046</v>
       </c>
-      <c r="C170" s="8">
+      <c r="C170">
         <v>-0.30053324412004656</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A171" s="8">
+      <c r="A171">
         <v>144</v>
       </c>
-      <c r="B171" s="8">
+      <c r="B171">
         <v>71.106083359081552</v>
       </c>
-      <c r="C171" s="8">
+      <c r="C171">
         <v>-0.30608335908155482</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A172" s="8">
+      <c r="A172">
         <v>145</v>
       </c>
-      <c r="B172" s="8">
+      <c r="B172">
         <v>70.716240720759814</v>
       </c>
-      <c r="C172" s="8">
+      <c r="C172">
         <v>-0.30624072075981701</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A173" s="8">
+      <c r="A173">
         <v>146</v>
       </c>
-      <c r="B173" s="8">
+      <c r="B173">
         <v>70.40433176109164</v>
       </c>
-      <c r="C173" s="8">
+      <c r="C173">
         <v>-0.31433176109163696</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A174" s="8">
+      <c r="A174">
         <v>147</v>
       </c>
-      <c r="B174" s="8">
+      <c r="B174">
         <v>71.125595252851483</v>
       </c>
-      <c r="C174" s="8">
+      <c r="C174">
         <v>-0.32559525285148538</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A175" s="8">
+      <c r="A175">
         <v>148</v>
       </c>
-      <c r="B175" s="8">
+      <c r="B175">
         <v>70.879629412036195</v>
       </c>
-      <c r="C175" s="8">
+      <c r="C175">
         <v>-0.32962941203619778</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A176" s="8">
+      <c r="A176">
         <v>149</v>
       </c>
-      <c r="B176" s="8">
+      <c r="B176">
         <v>69.581468309822938</v>
       </c>
-      <c r="C176" s="8">
+      <c r="C176">
         <v>-0.33146830982293807</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A177" s="8">
+      <c r="A177">
         <v>150</v>
       </c>
-      <c r="B177" s="8">
+      <c r="B177">
         <v>71.112219841276513</v>
       </c>
-      <c r="C177" s="8">
+      <c r="C177">
         <v>-0.33221984127651183</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A178" s="8">
+      <c r="A178">
         <v>151</v>
       </c>
-      <c r="B178" s="8">
+      <c r="B178">
         <v>70.574539588578872</v>
       </c>
-      <c r="C178" s="8">
+      <c r="C178">
         <v>-0.33453958857887756</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A179" s="8">
+      <c r="A179">
         <v>152</v>
       </c>
-      <c r="B179" s="8">
+      <c r="B179">
         <v>70.683423136015946</v>
       </c>
-      <c r="C179" s="8">
+      <c r="C179">
         <v>-0.34342313601594299</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A180" s="8">
+      <c r="A180">
         <v>153</v>
       </c>
-      <c r="B180" s="8">
+      <c r="B180">
         <v>71.09697004346171</v>
       </c>
-      <c r="C180" s="8">
+      <c r="C180">
         <v>-0.36697004346170559</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A181" s="8">
+      <c r="A181">
         <v>154</v>
       </c>
-      <c r="B181" s="8">
+      <c r="B181">
         <v>70.647700270592082</v>
       </c>
-      <c r="C181" s="8">
+      <c r="C181">
         <v>-0.36770027059208132</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A182" s="8">
+      <c r="A182">
         <v>155</v>
       </c>
-      <c r="B182" s="8">
+      <c r="B182">
         <v>70.802154209645749</v>
       </c>
-      <c r="C182" s="8">
+      <c r="C182">
         <v>-0.37215420964574264</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A183" s="8">
+      <c r="A183">
         <v>156</v>
       </c>
-      <c r="B183" s="8">
+      <c r="B183">
         <v>71.072727634649311</v>
       </c>
-      <c r="C183" s="8">
+      <c r="C183">
         <v>-0.37272763464930847</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A184" s="8">
+      <c r="A184">
         <v>157</v>
       </c>
-      <c r="B184" s="8">
+      <c r="B184">
         <v>71.573306007042291</v>
       </c>
-      <c r="C184" s="8">
+      <c r="C184">
         <v>-0.39330600704228402</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A185" s="8">
+      <c r="A185">
         <v>158</v>
       </c>
-      <c r="B185" s="8">
+      <c r="B185">
         <v>70.91469540780335</v>
       </c>
-      <c r="C185" s="8">
+      <c r="C185">
         <v>-0.41469540780335024</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A186" s="8">
+      <c r="A186">
         <v>159</v>
       </c>
-      <c r="B186" s="8">
+      <c r="B186">
         <v>71.478691190289922</v>
       </c>
-      <c r="C186" s="8">
+      <c r="C186">
         <v>-0.41869119028991975</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A187" s="8">
+      <c r="A187">
         <v>160</v>
       </c>
-      <c r="B187" s="8">
+      <c r="B187">
         <v>70.881137069325277</v>
       </c>
-      <c r="C187" s="8">
+      <c r="C187">
         <v>-0.42113706932528316</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A188" s="8">
+      <c r="A188">
         <v>161</v>
       </c>
-      <c r="B188" s="8">
+      <c r="B188">
         <v>70.294386477947782</v>
       </c>
-      <c r="C188" s="8">
+      <c r="C188">
         <v>-0.42438647794777751</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A189" s="8">
+      <c r="A189">
         <v>162</v>
       </c>
-      <c r="B189" s="8">
+      <c r="B189">
         <v>70.636174001325628</v>
       </c>
-      <c r="C189" s="8">
+      <c r="C189">
         <v>-0.42617400132563432</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A190" s="8">
+      <c r="A190">
         <v>163</v>
       </c>
-      <c r="B190" s="8">
+      <c r="B190">
         <v>71.321869124939937</v>
       </c>
-      <c r="C190" s="8">
+      <c r="C190">
         <v>-0.44186912493994157</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A191" s="8">
+      <c r="A191">
         <v>164</v>
       </c>
-      <c r="B191" s="8">
+      <c r="B191">
         <v>70.71908291811819</v>
       </c>
-      <c r="C191" s="8">
+      <c r="C191">
         <v>-0.45908291811818458</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A192" s="8">
+      <c r="A192">
         <v>165</v>
       </c>
-      <c r="B192" s="8">
+      <c r="B192">
         <v>70.319283037827489</v>
       </c>
-      <c r="C192" s="8">
+      <c r="C192">
         <v>-0.45928303782748969</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A193" s="8">
+      <c r="A193">
         <v>166</v>
       </c>
-      <c r="B193" s="8">
+      <c r="B193">
         <v>71.479289922137411</v>
       </c>
-      <c r="C193" s="8">
+      <c r="C193">
         <v>-0.45928992213741537</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A194" s="8">
+      <c r="A194">
         <v>167</v>
       </c>
-      <c r="B194" s="8">
+      <c r="B194">
         <v>70.769205151504949</v>
       </c>
-      <c r="C194" s="8">
+      <c r="C194">
         <v>-0.48920515150494737</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A195" s="8">
+      <c r="A195">
         <v>168</v>
       </c>
-      <c r="B195" s="8">
+      <c r="B195">
         <v>70.002911946070483</v>
       </c>
-      <c r="C195" s="8">
+      <c r="C195">
         <v>-0.49291194607047828</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A196" s="8">
+      <c r="A196">
         <v>169</v>
       </c>
-      <c r="B196" s="8">
+      <c r="B196">
         <v>70.981740504767274</v>
       </c>
-      <c r="C196" s="8">
+      <c r="C196">
         <v>-0.52174050476727984</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A197" s="8">
+      <c r="A197">
         <v>170</v>
       </c>
-      <c r="B197" s="8">
+      <c r="B197">
         <v>70.737677343796605</v>
       </c>
-      <c r="C197" s="8">
+      <c r="C197">
         <v>-0.53767734379660226</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A198" s="8">
+      <c r="A198">
         <v>171</v>
       </c>
-      <c r="B198" s="8">
+      <c r="B198">
         <v>70.916203232514562</v>
       </c>
-      <c r="C198" s="8">
+      <c r="C198">
         <v>-0.54620323251455716</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A199" s="8">
+      <c r="A199">
         <v>172</v>
       </c>
-      <c r="B199" s="8">
+      <c r="B199">
         <v>71.117643656068893</v>
       </c>
-      <c r="C199" s="8">
+      <c r="C199">
         <v>-0.54764365606889953</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A200" s="8">
+      <c r="A200">
         <v>173</v>
       </c>
-      <c r="B200" s="8">
+      <c r="B200">
         <v>70.869340465752757</v>
       </c>
-      <c r="C200" s="8">
+      <c r="C200">
         <v>-0.54934046575276341</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A201" s="8">
+      <c r="A201">
         <v>174</v>
       </c>
-      <c r="B201" s="8">
+      <c r="B201">
         <v>70.761980041556043</v>
       </c>
-      <c r="C201" s="8">
+      <c r="C201">
         <v>-0.55198004155604963</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A202" s="8">
+      <c r="A202">
         <v>175</v>
       </c>
-      <c r="B202" s="8">
+      <c r="B202">
         <v>70.547324613158182</v>
       </c>
-      <c r="C202" s="8">
+      <c r="C202">
         <v>-0.55732461315818682</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A203" s="8">
+      <c r="A203">
         <v>176</v>
       </c>
-      <c r="B203" s="8">
+      <c r="B203">
         <v>71.008480194290769</v>
       </c>
-      <c r="C203" s="8">
+      <c r="C203">
         <v>-0.56848019429077112</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A204" s="8">
+      <c r="A204">
         <v>177</v>
       </c>
-      <c r="B204" s="8">
+      <c r="B204">
         <v>70.425925085068684</v>
       </c>
-      <c r="C204" s="8">
+      <c r="C204">
         <v>-0.57592508506868967</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A205" s="8">
+      <c r="A205">
         <v>178</v>
       </c>
-      <c r="B205" s="8">
+      <c r="B205">
         <v>71.731746272979677</v>
       </c>
-      <c r="C205" s="8">
+      <c r="C205">
         <v>-0.61174627297967277</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A206" s="8">
+      <c r="A206">
         <v>179</v>
       </c>
-      <c r="B206" s="8">
+      <c r="B206">
         <v>70.788106798851587</v>
       </c>
-      <c r="C206" s="8">
+      <c r="C206">
         <v>-0.62810679885159004</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A207" s="8">
+      <c r="A207">
         <v>180</v>
       </c>
-      <c r="B207" s="8">
+      <c r="B207">
         <v>70.53699304202172</v>
       </c>
-      <c r="C207" s="8">
+      <c r="C207">
         <v>-0.68699304202172584</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A208" s="8">
+      <c r="A208">
         <v>181</v>
       </c>
-      <c r="B208" s="8">
+      <c r="B208">
         <v>71.546105074110073</v>
       </c>
-      <c r="C208" s="8">
+      <c r="C208">
         <v>-0.7361050741100712</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A209" s="8">
+      <c r="A209">
         <v>182</v>
       </c>
-      <c r="B209" s="8">
+      <c r="B209">
         <v>71.644868180254676</v>
       </c>
-      <c r="C209" s="8">
+      <c r="C209">
         <v>-0.75486818025467528</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A210" s="8">
+      <c r="A210">
         <v>183</v>
       </c>
-      <c r="B210" s="8">
+      <c r="B210">
         <v>70.36543024559866</v>
       </c>
-      <c r="C210" s="8">
+      <c r="C210">
         <v>-0.80543024559865728</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A211" s="8">
+      <c r="A211">
         <v>184</v>
       </c>
-      <c r="B211" s="8">
+      <c r="B211">
         <v>69.682068541281197</v>
       </c>
-      <c r="C211" s="8">
+      <c r="C211">
         <v>-0.82206854128119744</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A212" s="8">
+      <c r="A212">
         <v>185</v>
       </c>
-      <c r="B212" s="8">
+      <c r="B212">
         <v>70.454023357950476</v>
       </c>
-      <c r="C212" s="8">
+      <c r="C212">
         <v>-0.83402335795047122</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A213" s="9">
+      <c r="A213" s="8">
         <v>186</v>
       </c>
-      <c r="B213" s="9">
+      <c r="B213" s="8">
         <v>70.853321859040761</v>
       </c>
-      <c r="C213" s="9">
+      <c r="C213" s="8">
         <v>-0.84332185904075629</v>
       </c>
     </row>
